--- a/experiment_results/15081P466.xlsx
+++ b/experiment_results/15081P466.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1142"/>
+  <dimension ref="A1:I1152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Workshops and Classes', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13927,7 +13927,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P9</t>
+          <t>PRODUCTCODE: 3763GATEWAY</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious climate controlled glassed-enclosed observation cabin.</t>
+          <t>Summarized description: The Liberty Super Express is a 50-minute round-trip sightseeing cruise that sails near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and New York City Skyline Sightseeing Cruise</t>
+          <t>Title: New York City Statue of Liberty Super Express Cruise</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>TotalReviews: 461</t>
+          <t>TotalReviews: 1834</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 344890MIN</t>
+          <t>PRODUCTCODE: 125205P1</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: Admire New York's famous skyline and iconic sights from the water. See top New York attractions including the Empire State Building, Chrysler Building, Statue of Liberty, Brooklyn Bridge and United Nations.</t>
+          <t>Summarized description: Sail along the Hudson River to see some of New York City's most famous landmarks. Take a perfect selfie with Lady Liberty on our open-air rooftop deck.</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Title: New York City Skyline Cruise</t>
+          <t>Title: New York City Freedom Liberty Cruise</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>TotalReviews: 271</t>
+          <t>TotalReviews: 1188</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P12</t>
+          <t>PRODUCTCODE: 6288P9</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 1.5-hour cruise along the Hudson River and New York Harbor on a classic 1920s-style yacht. Take in the beautiful skyline as the sun dips below the horizon.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious climate controlled glassed-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Sunset Cruise on Yacht Manhattan </t>
+          <t>Title: Statue of Liberty and New York City Skyline Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>TotalReviews: 232</t>
+          <t>TotalReviews: 461</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763HAPPYHOUR</t>
+          <t>PRODUCTCODE: 344890MIN</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: Sail along and experience the Statue of Liberty, the Brooklyn Bridge and lower Manhattan with the calm of the evening sky. Unwind as you watch the sun set over the world's most beautiful skyline.</t>
+          <t>Summarized description: Admire New York's famous skyline and iconic sights from the water. See top New York attractions including the Empire State Building, Chrysler Building, Statue of Liberty, Brooklyn Bridge and United Nations.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Title: NYC Circle Line Night Cruise with Lady Liberty and Skyline Views</t>
+          <t>Title: New York City Skyline Cruise</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>TotalReviews: 210</t>
+          <t>TotalReviews: 271</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3448TWILIGHT</t>
+          <t>PRODUCTCODE: 5252CLIPPERCITY</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Watch the lights of America's largest city twinkle to life on this tranquil twilight cruise in New York Harbor. See top New York attractions such as the Empire State Building, Statue of Liberty and Brooklyn Bridge.</t>
+          <t>Summarized description: Step aboard a historic sailing ship and cruise around New York Harbor. Take in magnificent views of this grand city by day. See the Statue of Liberty, Ellis Island, the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: New York City Twilight Cruise</t>
+          <t>Title: NYC Statue of Liberty Tall Ship Sail aboard Clipper City</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 147</t>
+          <t>TotalReviews: 234</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P2</t>
+          <t>PRODUCTCODE: 6288P12</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: Enjoy a 1.5-hour cruise along the Hudson River and New York Harbor on a classic 1920s-style yacht. Take in the beautiful skyline as the sun dips below the horizon.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
+          <t xml:space="preserve">Title: New York City Sunset Cruise on Yacht Manhattan </t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 125</t>
+          <t>TotalReviews: 232</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540NYCHAPPY</t>
+          <t>PRODUCTCODE: 3763HAPPYHOUR</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: The 2-hour happy hour cruise of New York Harbor is the perfect way to unwind. Kick back with music, drinks and dancing aboard a sightseeing yacht that takes you past Manhattan's iconic skyline.</t>
+          <t>Summarized description: Sail along and experience the Statue of Liberty, the Brooklyn Bridge and lower Manhattan with the calm of the evening sky. Unwind as you watch the sun set over the world's most beautiful skyline.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: New York Alive After Five Cruise</t>
+          <t>Title: NYC Circle Line Night Cruise with Lady Liberty and Skyline Views</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 109</t>
+          <t>TotalReviews: 210</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P1</t>
+          <t>PRODUCTCODE: 3448TWILIGHT</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
+          <t>Summarized description: Watch the lights of America's largest city twinkle to life on this tranquil twilight cruise in New York Harbor. See top New York attractions such as the Empire State Building, Statue of Liberty and Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Sightseeing Cruise</t>
+          <t>Title: New York City Twilight Cruise</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 102</t>
+          <t>TotalReviews: 147</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P11</t>
+          <t>PRODUCTCODE: 195909P2</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy views of Ellis Island, the Statue of Liberty and Governors Island on this night time cruise. Enjoy a private table in the main, climate controlled salon on this 1920s inspired motor yacht.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: New York City Lights and Skyline Cruise on Yacht</t>
+          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 93</t>
+          <t>TotalReviews: 125</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18830P4</t>
+          <t>PRODUCTCODE: 12214P1</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Take in close-up views of the Statue of Liberty, Ellis Island and the Manhattan skyline. 105 minute sunset sail will be the highlight of your New York City stay.</t>
+          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: New York City Sunset Sail aboard Shearwater</t>
+          <t>Title: Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 102</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P24</t>
+          <t>PRODUCTCODE: 6288P20</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner America 2.0 is 105-feet in length and has about 3600 square feet of sail area. Sail by Manhattan's Financial District, One World Trade and Ellis Island. Enjoy up-close views of Lady Liberty and a great photo opportunity.</t>
+          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted schooner inspired by the pilot schooners of the 1890s. Sail past World One and Manhattan's towering financial district, Ellis Island and the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: New York City Sunset Sail to the Statue of Liberty</t>
+          <t>Title: New York City Sailboat Day Cruise to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 49</t>
+          <t>TotalReviews: 98</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P27</t>
+          <t>PRODUCTCODE: 6288P24</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a sunset cruise aboard a 1950s-style yacht, departing from North Cove Marina. Get up close on a slow pass by the Statue of Liberty &amp; Ellis Island as the boat cruises around New York Harbor and up the Hudson River.</t>
+          <t>Summarized description: Schooner America 2.0 is 105-feet in length and has about 3600 square feet of sail area. Sail by Manhattan's Financial District, One World Trade and Ellis Island. Enjoy up-close views of Lady Liberty and a great photo opportunity.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Sunset Cruise from Lower Manhattan</t>
+          <t>Title: New York City Sunset Sail to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 40</t>
+          <t>TotalReviews: 49</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800P18</t>
+          <t>PRODUCTCODE: 6288P43</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: You'll enjoy dazzling skyline views of Manhattan on this 2-hour cruise. From the Statue of Liberty to the Brooklyn Bridge, New York's landmarks are especially memorable when lit up at night.</t>
+          <t>Summarized description: Experience New York from the water on this spectacular holiday cruise aboard a 1920s-style classic boat. See all the major sites of Manhattan along the water and enjoy a beverage in the glassed-in, heated observatory.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Circle Line: Harbor Lights Cruise with Your Honey</t>
+          <t>Title: New York City Christmas Holiday Statue &amp; Skyline Cocoa Cruise</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 31</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P3</t>
+          <t>PRODUCTCODE: 34556P8</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise around the Statue of Liberty and Ellis Island with the New York City Skyline. 60-minute sightseeing cruise also journeys under the Brooklyn Bridge.</t>
+          <t>Summarized description: Get an unobstructed view of the Manhattan skyline, Freedom Tower, Empire State Building and the Statue of Liberty. Passengers are free to bring any food or drinks onboard the boat.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island 60 Minute sightseeing Cruise</t>
+          <t xml:space="preserve">Title: Private Luxury Sunset Boat Tour in New York City - 2 Hour </t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P7</t>
+          <t>PRODUCTCODE: 6288P41</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 60 minute sightseeing cruise departing from the Brooklyn Bridge. See the NYC famous skyline. We will sail right next to the Statue of Liberty and you will have incredible opportunities to take selfies and group phones.</t>
+          <t>Summarized description: Take in the sites in a glassed-in observatory aboard a classic 1920s-style yacht. Great photo opportunity to capture the New York City skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: NOW OPEN: Statue of Liberty Sightseeing Cruise 60 Min</t>
+          <t xml:space="preserve">Title: New York City Holiday Sunset Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P41</t>
+          <t>PRODUCTCODE: 336379P5</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Take in the sites in a glassed-in observatory aboard a classic 1920s-style yacht. Great photo opportunity to capture the New York City skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. Enjoy the live tour guide full of history and information about NYC. Sip a glass of wine or a cocktail from the cash bar on board.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Holiday Sunset Sightseeing Cruise </t>
+          <t xml:space="preserve">Title: Harbor City Lights of the NYC Skyline Cruise </t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 173559P7</t>
+          <t>PRODUCTCODE: 339911P3</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: The See NYC Sightseeing cruise is the best way to view the Statue of Liberty and NYC’s most iconic sights - all in one hour. The cruise includes a breathtaking view of the Brooklyn Bridge, Ellis Island, One World Trade Center (Freedom Tower), the awe-inspiring Manhattan skyline and more.Enjoy live onboard narration (English) or follow along in one of nine languages using the Hornblower AudioTour Guide app.</t>
+          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: See NYC Sightseeing Cruise in New York</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P49</t>
+          <t>PRODUCTCODE: 2540P56</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner America 2.0 offers a relaxing city lights tour around New York. See the New York City skyline, the Statue of Liberty and Ellis Island lit up at night.</t>
+          <t>Summarized description: Live DJ entertainment, a robust lunch buffet, and first-class service. Fun and scenic, our weekday lunch cruise offers a unique alternative to lunch in New York.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Skyline Night Sailboat Tour </t>
+          <t>Title: Lady Liberty Lunch Cruise</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P34</t>
+          <t>PRODUCTCODE: 336379P52</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. We will depart close to the Brooklyn Bridge and Manhattan Bridge. As we cruise you will see the NYC Sky Scraper with over 7000 buildings over 115' tall.</t>
+          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City: Night Skyline Cruise with Cash Bar </t>
+          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P73</t>
+          <t>PRODUCTCODE: 336379P34</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
+          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. We will depart close to the Brooklyn Bridge and Manhattan Bridge. As we cruise you will see the NYC Sky Scraper with over 7000 buildings over 115' tall.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
+          <t xml:space="preserve">Title: New York City: Night Skyline Cruise with Cash Bar </t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800HAPPY</t>
+          <t>PRODUCTCODE: 336379P73</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy live music, open bar and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Circle Line: Summer Happy Hour Cruise with Open Bar Included</t>
+          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5252P18</t>
+          <t>PRODUCTCODE: 2800HAPPY</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a one hour happy hour cruise along New York Harbor. Choose from a variety of cruise options to include beer and wine half off. See the best of the Manhattan’s iconic landmarks.</t>
+          <t>Summarized description: Enjoy live music, open bar and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Happy Hour on the Harbor</t>
+          <t>Title: Circle Line: Summer Happy Hour Cruise with Open Bar Included</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5042P73</t>
+          <t>PRODUCTCODE: 5252P18</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: This scenic cruise offers a 90-minute comprehensive experience of NYC’s must-see sights. With convenient Downtown pick-up location, board to see the historic and awe-inspiring Statue of Liberty.</t>
+          <t>Summarized description: Enjoy a one hour happy hour cruise along New York Harbor. Choose from a variety of cruise options to include beer and wine half off. See the best of the Manhattan’s iconic landmarks.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: NYC Downtown Sightseeing Cruise</t>
+          <t>Title: Happy Hour on the Harbor</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P9</t>
+          <t>PRODUCTCODE: 339911P11</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
+          <t>Summarized description: Enjoy an all-you-can-eat dinner with unlimited non-alcoholic drinks and dance on the upper deck to tunes played by the live DJ. Enjoy views of City Hall, the Woolworth Building, South Street Seaport, and Wall Street.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
+          <t>Title: NYC Manhattan Skyline and Statue of Liberty Dinner Cruise Ticket</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5252HARBOR</t>
+          <t>PRODUCTCODE: 72092P26</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: The Hudson River is one of the world's most famous waterways. Cruise ships can take up to 90 minutes to sail through the city. See the world’s most famous skyline light up the night.</t>
+          <t>Summarized description: Enjoy fabulous food, entertainment, and spectacular views while celebrating a special event to make any day one of a kind. Enjoy the stunning New York Harbor on the beautiful Skyline Princess.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: New York City Harbor Lights Sail</t>
+          <t>Title: NYC Skyline Dinner &amp; Sightseeing Cruise - WFM Queens *FreeParking</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800TTDC</t>
+          <t>PRODUCTCODE: 72092P8</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: DJ entertainment, drinks, food and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises. Check out our reviews!</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Circle Line: Manhattan Happy Hour Cruise</t>
+          <t>Title: NYC Skyline and Statue of Liberty Dinner Cruise from Queens</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 178998P1</t>
+          <t>PRODUCTCODE: 72092P6</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Sip on champagne and watch the sun dip behind the Statue of Liberty. Relax in an elegant atmosphere with a complimentary house bar. See the 'world's most famous skyline at sunset'</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: New York Champagne Sunset Sail Aboard a Schooner</t>
+          <t>Title: NYC Skyline and Statue of Liberty Dinner Cruise from Queens</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104964P70</t>
+          <t>PRODUCTCODE: 194024P2</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Our Thursday NYC after work cruise will keep the night filled with music. Dance into night as you enjoy your favorite hits of this year. Enjoy views, drinks, and music as you make Thursday night the new Friday in 2020 with us.</t>
+          <t>Summarized description: Clear schedule, less wait time, great view at the pier easy time lapse. Minutes walk from Wall Street, seamless to many downtown attractions.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Thursday Night Sunset After Work Cruise</t>
+          <t>Title: Statue of Liberty Cruise</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104964P71</t>
+          <t>PRODUCTCODE: 122220P3</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: This Friday NYC happy hour cruise will have you sailing aboard a spacious ship as you take in the sights. Sail in comfort and enjoy views of the city skyline and all of its landmarks. Live DJ mixing up nothing but the hits of the year.</t>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Friday Night Happy Hour Cruise</t>
+          <t>Title: 60-Minute Statue of Liberty Cruise (from Downtown New York City)</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540P112</t>
+          <t>PRODUCTCODE: 336379P3</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: The 2-hour happy hour cruise of New York Harbor is the perfect way to unwind. Kick back with music, drinks and dancing aboard a sightseeing yacht that takes you past Manhattan's iconic skyline.</t>
+          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Alive After Five Happy Hour Cruise-Group Option</t>
+          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P227</t>
+          <t>PRODUCTCODE: 3763P30</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Get stunning views of Lower Manhattan after dark. Sail within 100 feet of the Statue of Liberty. Cruise under the Brooklyn Bridge, Manhattan Bridge and Williamsburg Bridge.</t>
+          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: New York: Exciting 2-Hour Harbor Lights Night Cruise</t>
+          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 34556P9</t>
+          <t>PRODUCTCODE: 104964P71</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Pop the question underneath the Brooklyn Bridge or in front of the Statue of Liberty. Start the cruise off with a complementary cheese and charcuterie platter from a renowned New York eatery. The captain will guide and help plan the moment of your proposal.</t>
+          <t>Summarized description: This Friday NYC happy hour cruise will have you sailing aboard a spacious ship as you take in the sights. Sail in comfort and enjoy views of the city skyline and all of its landmarks. Live DJ mixing up nothing but the hits of the year.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: NYC Sunset Marriage Proposal aboard Luxury Powerboat</t>
+          <t>Title: Friday Night Happy Hour Cruise</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288CAROLS</t>
+          <t>PRODUCTCODE: 90219P227</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: 90-minute musical cruise in Manhattan. Listen to seasonal music from live carolers and a jazz trio. Enjoy views of the Statue of Liberty, Battery Park and other landmarks.</t>
+          <t>Summarized description: Get stunning views of Lower Manhattan after dark. Sail within 100 feet of the Statue of Liberty. Cruise under the Brooklyn Bridge, Manhattan Bridge and Williamsburg Bridge.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: New York City Holiday Music Cruise with Live Carols or Jazz</t>
+          <t>Title: New York: Exciting 2-Hour Harbor Lights Night Cruise</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 72092P2</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17629,6 +17629,156 @@
       <c r="H1142" t="inlineStr"/>
       <c r="I1142" t="inlineStr"/>
     </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>Summarized description: Set sail from the World's Fair Marina in Flushing Meadows Queens. A delicious gourmet buffet is available in the dining decks. Live DJ Entertainment awaits you on our all-weather Rooftop Dance floor.</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
+      <c r="D1143" t="inlineStr"/>
+      <c r="E1143" t="inlineStr"/>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
+      <c r="I1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>Title: Public NYC Skyline and Statue of Liberty Dinner Cruise from Flushing Queens</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr"/>
+      <c r="C1144" t="inlineStr"/>
+      <c r="D1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr"/>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr"/>
+      <c r="H1144" t="inlineStr"/>
+      <c r="I1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr"/>
+      <c r="C1145" t="inlineStr"/>
+      <c r="D1145" t="inlineStr"/>
+      <c r="E1145" t="inlineStr"/>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr"/>
+      <c r="H1145" t="inlineStr"/>
+      <c r="I1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr"/>
+      <c r="C1146" t="inlineStr"/>
+      <c r="D1146" t="inlineStr"/>
+      <c r="E1146" t="inlineStr"/>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="inlineStr"/>
+      <c r="H1146" t="inlineStr"/>
+      <c r="I1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 111861P16</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr"/>
+      <c r="C1147" t="inlineStr"/>
+      <c r="D1147" t="inlineStr"/>
+      <c r="E1147" t="inlineStr"/>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr"/>
+      <c r="H1147" t="inlineStr"/>
+      <c r="I1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr"/>
+      <c r="C1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
+      <c r="H1148" t="inlineStr"/>
+      <c r="I1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr"/>
+      <c r="I1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
+      <c r="I1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises']</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr"/>
+      <c r="C1151" t="inlineStr"/>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
+      <c r="H1151" t="inlineStr"/>
+      <c r="I1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr"/>
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr"/>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="inlineStr"/>
+      <c r="H1152" t="inlineStr"/>
+      <c r="I1152" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/15081P466.xlsx
+++ b/experiment_results/15081P466.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1152"/>
+  <dimension ref="A1:I1147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Workshops and Classes']</t>
+          <t>Category: ['Cultural Cruises', 'Workshops and Classes', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts', 'Scenic Tours']</t>
+          <t>Category: ['Performing Arts', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13927,7 +13927,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5252CLIPPERCITY</t>
+          <t>PRODUCTCODE: 6288P12</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Step aboard a historic sailing ship and cruise around New York Harbor. Take in magnificent views of this grand city by day. See the Statue of Liberty, Ellis Island, the Manhattan skyline.</t>
+          <t>Summarized description: Enjoy a 1.5-hour cruise along the Hudson River and New York Harbor on a classic 1920s-style yacht. Take in the beautiful skyline as the sun dips below the horizon.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Tall Ship Sail aboard Clipper City</t>
+          <t xml:space="preserve">Title: New York City Sunset Cruise on Yacht Manhattan </t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 234</t>
+          <t>TotalReviews: 232</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P12</t>
+          <t>PRODUCTCODE: 3763HAPPYHOUR</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 1.5-hour cruise along the Hudson River and New York Harbor on a classic 1920s-style yacht. Take in the beautiful skyline as the sun dips below the horizon.</t>
+          <t>Summarized description: Sail along and experience the Statue of Liberty, the Brooklyn Bridge and lower Manhattan with the calm of the evening sky. Unwind as you watch the sun set over the world's most beautiful skyline.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Sunset Cruise on Yacht Manhattan </t>
+          <t>Title: NYC Circle Line Night Cruise with Lady Liberty and Skyline Views</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 232</t>
+          <t>TotalReviews: 210</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763HAPPYHOUR</t>
+          <t>PRODUCTCODE: 3448TWILIGHT</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Sail along and experience the Statue of Liberty, the Brooklyn Bridge and lower Manhattan with the calm of the evening sky. Unwind as you watch the sun set over the world's most beautiful skyline.</t>
+          <t>Summarized description: Watch the lights of America's largest city twinkle to life on this tranquil twilight cruise in New York Harbor. See top New York attractions such as the Empire State Building, Statue of Liberty and Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: NYC Circle Line Night Cruise with Lady Liberty and Skyline Views</t>
+          <t>Title: New York City Twilight Cruise</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 210</t>
+          <t>TotalReviews: 147</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3448TWILIGHT</t>
+          <t>PRODUCTCODE: 195909P2</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: Watch the lights of America's largest city twinkle to life on this tranquil twilight cruise in New York Harbor. See top New York attractions such as the Empire State Building, Statue of Liberty and Brooklyn Bridge.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: New York City Twilight Cruise</t>
+          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 147</t>
+          <t>TotalReviews: 125</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P2</t>
+          <t>PRODUCTCODE: 2540NYCHAPPY</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: The 2-hour happy hour cruise of New York Harbor is the perfect way to unwind. Kick back with music, drinks and dancing aboard a sightseeing yacht that takes you past Manhattan's iconic skyline.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
+          <t>Title: New York Alive After Five Cruise</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 125</t>
+          <t>TotalReviews: 109</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 339911P3</t>
+          <t>PRODUCTCODE: 6288P49</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
+          <t>Summarized description: Schooner America 2.0 offers a relaxing city lights tour around New York. See the New York City skyline, the Statue of Liberty and Ellis Island lit up at night.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
+          <t xml:space="preserve">Title: New York City Skyline Night Sailboat Tour </t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540P56</t>
+          <t>PRODUCTCODE: 339911P3</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Live DJ entertainment, a robust lunch buffet, and first-class service. Fun and scenic, our weekday lunch cruise offers a unique alternative to lunch in New York.</t>
+          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Lady Liberty Lunch Cruise</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P51</t>
+          <t>PRODUCTCODE: 170459P4</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat navigates New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
+          <t>Summarized description: Captain Martin holds a USCG 100 Ton Master Captain’s License. Sailor of the New York Harbor for 25 years, he is an expert guide to NYC's waterways.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: New York City Day Cruise by Statue of Liberty on Small Yacht</t>
+          <t>Title: Private Sunset Sail to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 170459P4</t>
+          <t>PRODUCTCODE: 336379P52</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Captain Martin holds a USCG 100 Ton Master Captain’s License. Sailor of the New York Harbor for 25 years, he is an expert guide to NYC's waterways.</t>
+          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Private Sunset Sail to the Statue of Liberty</t>
+          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P52</t>
+          <t>PRODUCTCODE: 336379P34</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
+          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. We will depart close to the Brooklyn Bridge and Manhattan Bridge. As we cruise you will see the NYC Sky Scraper with over 7000 buildings over 115' tall.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
+          <t xml:space="preserve">Title: New York City: Night Skyline Cruise with Cash Bar </t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P34</t>
+          <t>PRODUCTCODE: 336379P73</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. We will depart close to the Brooklyn Bridge and Manhattan Bridge. As we cruise you will see the NYC Sky Scraper with over 7000 buildings over 115' tall.</t>
+          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City: Night Skyline Cruise with Cash Bar </t>
+          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P73</t>
+          <t>PRODUCTCODE: 2800HAPPY</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
+          <t>Summarized description: Enjoy live music, open bar and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
+          <t>Title: Circle Line: Summer Happy Hour Cruise with Open Bar Included</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800HAPPY</t>
+          <t>PRODUCTCODE: 5252P18</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy live music, open bar and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: Enjoy a one hour happy hour cruise along New York Harbor. Choose from a variety of cruise options to include beer and wine half off. See the best of the Manhattan’s iconic landmarks.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Circle Line: Summer Happy Hour Cruise with Open Bar Included</t>
+          <t>Title: Happy Hour on the Harbor</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5252P18</t>
+          <t>PRODUCTCODE: 339911P11</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a one hour happy hour cruise along New York Harbor. Choose from a variety of cruise options to include beer and wine half off. See the best of the Manhattan’s iconic landmarks.</t>
+          <t>Summarized description: Enjoy an all-you-can-eat dinner with unlimited non-alcoholic drinks and dance on the upper deck to tunes played by the live DJ. Enjoy views of City Hall, the Woolworth Building, South Street Seaport, and Wall Street.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Happy Hour on the Harbor</t>
+          <t>Title: NYC Manhattan Skyline and Statue of Liberty Dinner Cruise Ticket</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 339911P11</t>
+          <t>PRODUCTCODE: 336379P28</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy an all-you-can-eat dinner with unlimited non-alcoholic drinks and dance on the upper deck to tunes played by the live DJ. Enjoy views of City Hall, the Woolworth Building, South Street Seaport, and Wall Street.</t>
+          <t>Summarized description: One World Trade observation deck entrance where you can go anytime you wish. 60 minute sightseeing cruise where you will get close up to Lady Liberty and see the full NYC Skyline.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: NYC Manhattan Skyline and Statue of Liberty Dinner Cruise Ticket</t>
+          <t xml:space="preserve">Title: One World Trade Observations Deck and Statue of Liberty Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P28</t>
+          <t>PRODUCTCODE: 90219P189</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: One World Trade observation deck entrance where you can go anytime you wish. 60 minute sightseeing cruise where you will get close up to Lady Liberty and see the full NYC Skyline.</t>
+          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: One World Trade Observations Deck and Statue of Liberty Sightseeing Cruise </t>
+          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P189</t>
+          <t>PRODUCTCODE: 72092P26</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
+          <t>Summarized description: Enjoy fabulous food, entertainment, and spectacular views while celebrating a special event to make any day one of a kind. Enjoy the stunning New York Harbor on the beautiful Skyline Princess.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: NYC Skyline Dinner &amp; Sightseeing Cruise - WFM Queens *FreeParking</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P26</t>
+          <t>PRODUCTCODE: 18830P6</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy fabulous food, entertainment, and spectacular views while celebrating a special event to make any day one of a kind. Enjoy the stunning New York Harbor on the beautiful Skyline Princess.</t>
+          <t>Summarized description: Enjoy happy hour on the sea with the New York City skyline as your background. Sail smoothly from the end of your week into the start of your weekend on board Manhattan's most elegant sailing ship.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: NYC Skyline Dinner &amp; Sightseeing Cruise - WFM Queens *FreeParking</t>
+          <t>Title: New York City Happy Hour Sail</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18830P6</t>
+          <t>PRODUCTCODE: 74526P26</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy happy hour on the sea with the New York City skyline as your background. Sail smoothly from the end of your week into the start of your weekend on board Manhattan's most elegant sailing ship.</t>
+          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: New York City Happy Hour Sail</t>
+          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P26</t>
+          <t>PRODUCTCODE: 104964P12</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
+          <t>Summarized description: The Hornblower Yacht has not one, but two spacious, climate-controlled interior decks. Get up close and personal with The Statue of Liberty, Freedom Towers, and the city’s many famous bridges.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
+          <t>Title: Friday Night Sunset Happy Hour Cruise - NYC - Pier 40</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104964P12</t>
+          <t>PRODUCTCODE: 6390P11</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: The Hornblower Yacht has not one, but two spacious, climate-controlled interior decks. Get up close and personal with The Statue of Liberty, Freedom Towers, and the city’s many famous bridges.</t>
+          <t>Summarized description: Sail around the NY harbor on this NYC sunset jazz cruise. During your three hour sail, delight in breathtaking views of the Statue of Liberty and the illuminated Manhattan skyline. Enjoy smooth Jazz sounds in the background.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Friday Night Sunset Happy Hour Cruise - NYC - Pier 40</t>
+          <t>Title: NYC Sunset Jazz Cruise</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6390P11</t>
+          <t>PRODUCTCODE: 72092P8</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the NY harbor on this NYC sunset jazz cruise. During your three hour sail, delight in breathtaking views of the Statue of Liberty and the illuminated Manhattan skyline. Enjoy smooth Jazz sounds in the background.</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises. Check out our reviews!</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: NYC Sunset Jazz Cruise</t>
+          <t>Title: NYC Skyline and Statue of Liberty Dinner Cruise from Queens</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P8</t>
+          <t>PRODUCTCODE: 2800TTDC</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises. Check out our reviews!</t>
+          <t>Summarized description: DJ entertainment, drinks, food and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: NYC Skyline and Statue of Liberty Dinner Cruise from Queens</t>
+          <t>Title: Circle Line: Manhattan Happy Hour Cruise</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104964P71</t>
+          <t>PRODUCTCODE: 90219P227</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: This Friday NYC happy hour cruise will have you sailing aboard a spacious ship as you take in the sights. Sail in comfort and enjoy views of the city skyline and all of its landmarks. Live DJ mixing up nothing but the hits of the year.</t>
+          <t>Summarized description: Get stunning views of Lower Manhattan after dark. Sail within 100 feet of the Statue of Liberty. Cruise under the Brooklyn Bridge, Manhattan Bridge and Williamsburg Bridge.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Friday Night Happy Hour Cruise</t>
+          <t>Title: New York: Exciting 2-Hour Harbor Lights Night Cruise</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P227</t>
+          <t>PRODUCTCODE: 72092P2</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Get stunning views of Lower Manhattan after dark. Sail within 100 feet of the Statue of Liberty. Cruise under the Brooklyn Bridge, Manhattan Bridge and Williamsburg Bridge.</t>
+          <t>Summarized description: Set sail from the World's Fair Marina in Flushing Meadows Queens. A delicious gourmet buffet is available in the dining decks. Live DJ Entertainment awaits you on our all-weather Rooftop Dance floor.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: New York: Exciting 2-Hour Harbor Lights Night Cruise</t>
+          <t>Title: Public NYC Skyline and Statue of Liberty Dinner Cruise from Flushing Queens</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P2</t>
+          <t>PRODUCTCODE: 111861P16</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail from the World's Fair Marina in Flushing Meadows Queens. A delicious gourmet buffet is available in the dining decks. Live DJ Entertainment awaits you on our all-weather Rooftop Dance floor.</t>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Public NYC Skyline and Statue of Liberty Dinner Cruise from Flushing Queens</t>
+          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 111861P16</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17704,81 +17704,6 @@
       <c r="H1147" t="inlineStr"/>
       <c r="I1147" t="inlineStr"/>
     </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr"/>
-      <c r="I1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
-      <c r="I1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-      <c r="I1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr"/>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr"/>
-      <c r="H1151" t="inlineStr"/>
-      <c r="I1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr"/>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr"/>
-      <c r="H1152" t="inlineStr"/>
-      <c r="I1152" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/15081P466.xlsx
+++ b/experiment_results/15081P466.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1147"/>
+  <dimension ref="A1:I1162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Aerial Tours']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Aerial Tours']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Museums', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Workshops and Classes', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Museums', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13927,7 +13927,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P12</t>
+          <t>PRODUCTCODE: 5252CLIPPERCITY</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 1.5-hour cruise along the Hudson River and New York Harbor on a classic 1920s-style yacht. Take in the beautiful skyline as the sun dips below the horizon.</t>
+          <t>Summarized description: Step aboard a historic sailing ship and cruise around New York Harbor. Take in magnificent views of this grand city by day. See the Statue of Liberty, Ellis Island, the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Sunset Cruise on Yacht Manhattan </t>
+          <t>Title: NYC Statue of Liberty Tall Ship Sail aboard Clipper City</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 232</t>
+          <t>TotalReviews: 234</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763HAPPYHOUR</t>
+          <t>PRODUCTCODE: 6288P12</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Sail along and experience the Statue of Liberty, the Brooklyn Bridge and lower Manhattan with the calm of the evening sky. Unwind as you watch the sun set over the world's most beautiful skyline.</t>
+          <t>Summarized description: Enjoy a 1.5-hour cruise along the Hudson River and New York Harbor on a classic 1920s-style yacht. Take in the beautiful skyline as the sun dips below the horizon.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: NYC Circle Line Night Cruise with Lady Liberty and Skyline Views</t>
+          <t xml:space="preserve">Title: New York City Sunset Cruise on Yacht Manhattan </t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 210</t>
+          <t>TotalReviews: 232</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3448TWILIGHT</t>
+          <t>PRODUCTCODE: 3763HAPPYHOUR</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Watch the lights of America's largest city twinkle to life on this tranquil twilight cruise in New York Harbor. See top New York attractions such as the Empire State Building, Statue of Liberty and Brooklyn Bridge.</t>
+          <t>Summarized description: Sail along and experience the Statue of Liberty, the Brooklyn Bridge and lower Manhattan with the calm of the evening sky. Unwind as you watch the sun set over the world's most beautiful skyline.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: New York City Twilight Cruise</t>
+          <t>Title: NYC Circle Line Night Cruise with Lady Liberty and Skyline Views</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 147</t>
+          <t>TotalReviews: 210</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P2</t>
+          <t>PRODUCTCODE: 3448TWILIGHT</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: Watch the lights of America's largest city twinkle to life on this tranquil twilight cruise in New York Harbor. See top New York attractions such as the Empire State Building, Statue of Liberty and Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
+          <t>Title: New York City Twilight Cruise</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 125</t>
+          <t>TotalReviews: 147</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540NYCHAPPY</t>
+          <t>PRODUCTCODE: 195909P2</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: The 2-hour happy hour cruise of New York Harbor is the perfect way to unwind. Kick back with music, drinks and dancing aboard a sightseeing yacht that takes you past Manhattan's iconic skyline.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: New York Alive After Five Cruise</t>
+          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 109</t>
+          <t>TotalReviews: 125</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P1</t>
+          <t>PRODUCTCODE: 2540NYCHAPPY</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
+          <t>Summarized description: The 2-hour happy hour cruise of New York Harbor is the perfect way to unwind. Kick back with music, drinks and dancing aboard a sightseeing yacht that takes you past Manhattan's iconic skyline.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Sightseeing Cruise</t>
+          <t>Title: New York Alive After Five Cruise</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 102</t>
+          <t>TotalReviews: 109</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P20</t>
+          <t>PRODUCTCODE: 12214P1</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted schooner inspired by the pilot schooners of the 1890s. Sail past World One and Manhattan's towering financial district, Ellis Island and the Statue of Liberty.</t>
+          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: New York City Sailboat Day Cruise to the Statue of Liberty</t>
+          <t>Title: Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 98</t>
+          <t>TotalReviews: 102</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P24</t>
+          <t>PRODUCTCODE: 6288P20</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner America 2.0 is 105-feet in length and has about 3600 square feet of sail area. Sail by Manhattan's Financial District, One World Trade and Ellis Island. Enjoy up-close views of Lady Liberty and a great photo opportunity.</t>
+          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted schooner inspired by the pilot schooners of the 1890s. Sail past World One and Manhattan's towering financial district, Ellis Island and the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: New York City Sunset Sail to the Statue of Liberty</t>
+          <t>Title: New York City Sailboat Day Cruise to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 49</t>
+          <t>TotalReviews: 98</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763P33</t>
+          <t>PRODUCTCODE: 6288P11</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Sail away on New York’s newest after-hours cruise giving locals and tourists alike the most up-close view of Lady Liberty in front of the most breathtaking and colorful sunsets in the world. Expect to be hypnotized by the glowing panoramic views of Lower Manhattan, the Brooklyn Bridge, the New York Harbor and more in just sixty minutes!</t>
+          <t>Summarized description: Enjoy views of Ellis Island, the Statue of Liberty and Governors Island on this night time cruise. Enjoy a private table in the main, climate controlled salon on this 1920s inspired motor yacht.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Statue of Liberty Sunset Cruise </t>
+          <t>Title: New York City Lights and Skyline Cruise on Yacht</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 93</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P3</t>
+          <t>PRODUCTCODE: 6288P24</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: Schooner America 2.0 is 105-feet in length and has about 3600 square feet of sail area. Sail by Manhattan's Financial District, One World Trade and Ellis Island. Enjoy up-close views of Lady Liberty and a great photo opportunity.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Sunset Cruise and New York City Sky Line </t>
+          <t>Title: New York City Sunset Sail to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 49</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P43</t>
+          <t>PRODUCTCODE: 3763P33</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Experience New York from the water on this spectacular holiday cruise aboard a 1920s-style classic boat. See all the major sites of Manhattan along the water and enjoy a beverage in the glassed-in, heated observatory.</t>
+          <t>Summarized description: Sail away on New York’s newest after-hours cruise giving locals and tourists alike the most up-close view of Lady Liberty in front of the most breathtaking and colorful sunsets in the world. Expect to be hypnotized by the glowing panoramic views of Lower Manhattan, the Brooklyn Bridge, the New York Harbor and more in just sixty minutes!</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: New York City Christmas Holiday Statue &amp; Skyline Cocoa Cruise</t>
+          <t xml:space="preserve">Title: New York City Statue of Liberty Sunset Cruise </t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 31</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P27</t>
+          <t>PRODUCTCODE: 195909P3</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island, and the Brooklyn Bridge on a sunset cruise. Enjoy views of New York City's skyline and watch as the city lights come to life.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: New York: Statue of Liberty and Ellis Island Sunset Cruise</t>
+          <t xml:space="preserve">Title: Statue of Liberty Sunset Cruise and New York City Sky Line </t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 34556P8</t>
+          <t>PRODUCTCODE: 6288P43</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Get an unobstructed view of the Manhattan skyline, Freedom Tower, Empire State Building and the Statue of Liberty. Passengers are free to bring any food or drinks onboard the boat.</t>
+          <t>Summarized description: Experience New York from the water on this spectacular holiday cruise aboard a 1920s-style classic boat. See all the major sites of Manhattan along the water and enjoy a beverage in the glassed-in, heated observatory.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Luxury Sunset Boat Tour in New York City - 2 Hour </t>
+          <t>Title: New York City Christmas Holiday Statue &amp; Skyline Cocoa Cruise</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 31</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P66</t>
+          <t>PRODUCTCODE: 74526P27</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
+          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island, and the Brooklyn Bridge on a sunset cruise. Enjoy views of New York City's skyline and watch as the city lights come to life.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
+          <t>Title: New York: Statue of Liberty and Ellis Island Sunset Cruise</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18830P5</t>
+          <t>PRODUCTCODE: 34556P8</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Glide by the Statue of Liberty all-aglow and marvel at the surreal experience of NY Harbor by night. This 90-minute evening sail offers the perfect opportunity to sit back and relax while you take in close-up views.</t>
+          <t>Summarized description: Get an unobstructed view of the Manhattan skyline, Freedom Tower, Empire State Building and the Statue of Liberty. Passengers are free to bring any food or drinks onboard the boat.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: New York City Lights Sail</t>
+          <t xml:space="preserve">Title: Private Luxury Sunset Boat Tour in New York City - 2 Hour </t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P50</t>
+          <t>PRODUCTCODE: 336379P66</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
+          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: New York City Sunset Cocktail Cruise on Small Yacht</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P41</t>
+          <t>PRODUCTCODE: 18830P5</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Take in the sites in a glassed-in observatory aboard a classic 1920s-style yacht. Great photo opportunity to capture the New York City skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: Glide by the Statue of Liberty all-aglow and marvel at the surreal experience of NY Harbor by night. This 90-minute evening sail offers the perfect opportunity to sit back and relax while you take in close-up views.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Holiday Sunset Sightseeing Cruise </t>
+          <t>Title: New York City Lights Sail</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P5</t>
+          <t>PRODUCTCODE: 6288P50</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. Enjoy the live tour guide full of history and information about NYC. Sip a glass of wine or a cocktail from the cash bar on board.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Harbor City Lights of the NYC Skyline Cruise </t>
+          <t>Title: New York City Sunset Cocktail Cruise on Small Yacht</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P49</t>
+          <t>PRODUCTCODE: 6288P41</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner America 2.0 offers a relaxing city lights tour around New York. See the New York City skyline, the Statue of Liberty and Ellis Island lit up at night.</t>
+          <t>Summarized description: Take in the sites in a glassed-in observatory aboard a classic 1920s-style yacht. Great photo opportunity to capture the New York City skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Skyline Night Sailboat Tour </t>
+          <t xml:space="preserve">Title: New York City Holiday Sunset Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 339911P3</t>
+          <t>PRODUCTCODE: 336379P5</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
+          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. Enjoy the live tour guide full of history and information about NYC. Sip a glass of wine or a cocktail from the cash bar on board.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
+          <t xml:space="preserve">Title: Harbor City Lights of the NYC Skyline Cruise </t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 170459P4</t>
+          <t>PRODUCTCODE: 6288P49</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Captain Martin holds a USCG 100 Ton Master Captain’s License. Sailor of the New York Harbor for 25 years, he is an expert guide to NYC's waterways.</t>
+          <t>Summarized description: Schooner America 2.0 offers a relaxing city lights tour around New York. See the New York City skyline, the Statue of Liberty and Ellis Island lit up at night.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Private Sunset Sail to the Statue of Liberty</t>
+          <t xml:space="preserve">Title: New York City Skyline Night Sailboat Tour </t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P52</t>
+          <t>PRODUCTCODE: 339911P3</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
+          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P34</t>
+          <t>PRODUCTCODE: 170459P4</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. We will depart close to the Brooklyn Bridge and Manhattan Bridge. As we cruise you will see the NYC Sky Scraper with over 7000 buildings over 115' tall.</t>
+          <t>Summarized description: Captain Martin holds a USCG 100 Ton Master Captain’s License. Sailor of the New York Harbor for 25 years, he is an expert guide to NYC's waterways.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City: Night Skyline Cruise with Cash Bar </t>
+          <t>Title: Private Sunset Sail to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P73</t>
+          <t>PRODUCTCODE: 336379P52</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
+          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
+          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800HAPPY</t>
+          <t>PRODUCTCODE: 336379P34</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy live music, open bar and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. We will depart close to the Brooklyn Bridge and Manhattan Bridge. As we cruise you will see the NYC Sky Scraper with over 7000 buildings over 115' tall.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Circle Line: Summer Happy Hour Cruise with Open Bar Included</t>
+          <t xml:space="preserve">Title: New York City: Night Skyline Cruise with Cash Bar </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5252P18</t>
+          <t>PRODUCTCODE: 336379P73</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a one hour happy hour cruise along New York Harbor. Choose from a variety of cruise options to include beer and wine half off. See the best of the Manhattan’s iconic landmarks.</t>
+          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Happy Hour on the Harbor</t>
+          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 339911P11</t>
+          <t>PRODUCTCODE: 2800HAPPY</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy an all-you-can-eat dinner with unlimited non-alcoholic drinks and dance on the upper deck to tunes played by the live DJ. Enjoy views of City Hall, the Woolworth Building, South Street Seaport, and Wall Street.</t>
+          <t>Summarized description: Enjoy live music, open bar and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: NYC Manhattan Skyline and Statue of Liberty Dinner Cruise Ticket</t>
+          <t>Title: Circle Line: Summer Happy Hour Cruise with Open Bar Included</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P28</t>
+          <t>PRODUCTCODE: 5252P18</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: One World Trade observation deck entrance where you can go anytime you wish. 60 minute sightseeing cruise where you will get close up to Lady Liberty and see the full NYC Skyline.</t>
+          <t>Summarized description: Enjoy a one hour happy hour cruise along New York Harbor. Choose from a variety of cruise options to include beer and wine half off. See the best of the Manhattan’s iconic landmarks.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: One World Trade Observations Deck and Statue of Liberty Sightseeing Cruise </t>
+          <t>Title: Happy Hour on the Harbor</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P189</t>
+          <t>PRODUCTCODE: 339911P11</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
+          <t>Summarized description: Enjoy an all-you-can-eat dinner with unlimited non-alcoholic drinks and dance on the upper deck to tunes played by the live DJ. Enjoy views of City Hall, the Woolworth Building, South Street Seaport, and Wall Street.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: NYC Manhattan Skyline and Statue of Liberty Dinner Cruise Ticket</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P26</t>
+          <t>PRODUCTCODE: 336379P28</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy fabulous food, entertainment, and spectacular views while celebrating a special event to make any day one of a kind. Enjoy the stunning New York Harbor on the beautiful Skyline Princess.</t>
+          <t>Summarized description: One World Trade observation deck entrance where you can go anytime you wish. 60 minute sightseeing cruise where you will get close up to Lady Liberty and see the full NYC Skyline.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: NYC Skyline Dinner &amp; Sightseeing Cruise - WFM Queens *FreeParking</t>
+          <t xml:space="preserve">Title: One World Trade Observations Deck and Statue of Liberty Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18830P6</t>
+          <t>PRODUCTCODE: 90219P189</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy happy hour on the sea with the New York City skyline as your background. Sail smoothly from the end of your week into the start of your weekend on board Manhattan's most elegant sailing ship.</t>
+          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: New York City Happy Hour Sail</t>
+          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P26</t>
+          <t>PRODUCTCODE: 92534P5</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
+          <t>Summarized description: Walk Through History + Sightseeing Cruise is a walking tour through lower Manhattan led by an expert actor/guide showing you NYC through their eyes. The Liberty Harbor Cruise offers unparalleled views of Manhattan’s iconic skyline.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
+          <t>Title: NYC Financial District History Tour and Liberty Cruise Ticket</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104964P12</t>
+          <t>PRODUCTCODE: 18830P6</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: The Hornblower Yacht has not one, but two spacious, climate-controlled interior decks. Get up close and personal with The Statue of Liberty, Freedom Towers, and the city’s many famous bridges.</t>
+          <t>Summarized description: Enjoy happy hour on the sea with the New York City skyline as your background. Sail smoothly from the end of your week into the start of your weekend on board Manhattan's most elegant sailing ship.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Friday Night Sunset Happy Hour Cruise - NYC - Pier 40</t>
+          <t>Title: New York City Happy Hour Sail</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6390P11</t>
+          <t>PRODUCTCODE: 74526P26</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the NY harbor on this NYC sunset jazz cruise. During your three hour sail, delight in breathtaking views of the Statue of Liberty and the illuminated Manhattan skyline. Enjoy smooth Jazz sounds in the background.</t>
+          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: NYC Sunset Jazz Cruise</t>
+          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P8</t>
+          <t>PRODUCTCODE: 104964P12</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises. Check out our reviews!</t>
+          <t>Summarized description: The Hornblower Yacht has not one, but two spacious, climate-controlled interior decks. Get up close and personal with The Statue of Liberty, Freedom Towers, and the city’s many famous bridges.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: NYC Skyline and Statue of Liberty Dinner Cruise from Queens</t>
+          <t>Title: Friday Night Sunset Happy Hour Cruise - NYC - Pier 40</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800TTDC</t>
+          <t>PRODUCTCODE: 6390P11</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: DJ entertainment, drinks, food and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: Sail around the NY harbor on this NYC sunset jazz cruise. During your three hour sail, delight in breathtaking views of the Statue of Liberty and the illuminated Manhattan skyline. Enjoy smooth Jazz sounds in the background.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Circle Line: Manhattan Happy Hour Cruise</t>
+          <t>Title: NYC Sunset Jazz Cruise</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P6</t>
+          <t>PRODUCTCODE: 72092P8</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises.</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises. Check out our reviews!</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9048P3</t>
+          <t>PRODUCTCODE: 2800TTDC</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: The 3-hour happy hour cruise of New York Harbor is the perfect way to unwind. Whether you’re a tourist in the Big Apple or you just want to relax with your coworkers after a day’s work in Manhattan.</t>
+          <t>Summarized description: DJ entertainment, drinks, food and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Sunset After Work Happy Hour Cruise</t>
+          <t>Title: Circle Line: Manhattan Happy Hour Cruise</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P19</t>
+          <t>PRODUCTCODE: 72092P6</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise will pass the Statue of Liberty, Ellis Island, the Brooklyn Bridge and more. We will slow the cruise near the famous Lady Liberty for incredible photo opportunity.</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Harbor Skyline and NYC Lights and Statue of Liberty </t>
+          <t>Title: NYC Skyline and Statue of Liberty Dinner Cruise from Queens</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 194024P2</t>
+          <t>PRODUCTCODE: 9048P3</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Clear schedule, less wait time, great view at the pier easy time lapse. Minutes walk from Wall Street, seamless to many downtown attractions.</t>
+          <t>Summarized description: The 3-hour happy hour cruise of New York Harbor is the perfect way to unwind. Whether you’re a tourist in the Big Apple or you just want to relax with your coworkers after a day’s work in Manhattan.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Cruise</t>
+          <t>Title: Sunset After Work Happy Hour Cruise</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Dining Experiences']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122220P3</t>
+          <t>PRODUCTCODE: 336379P19</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+          <t>Summarized description: Cruise will pass the Statue of Liberty, Ellis Island, the Brooklyn Bridge and more. We will slow the cruise near the famous Lady Liberty for incredible photo opportunity.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: 60-Minute Statue of Liberty Cruise (from Downtown New York City)</t>
+          <t xml:space="preserve">Title: NYC: Harbor Skyline and NYC Lights and Statue of Liberty </t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P3</t>
+          <t>PRODUCTCODE: 194024P2</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
+          <t>Summarized description: Clear schedule, less wait time, great view at the pier easy time lapse. Minutes walk from Wall Street, seamless to many downtown attractions.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
+          <t>Title: Statue of Liberty Cruise</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763P30</t>
+          <t>PRODUCTCODE: 122220P3</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
+          <t>Title: 60-Minute Statue of Liberty Cruise (from Downtown New York City)</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P227</t>
+          <t>PRODUCTCODE: 336379P3</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Get stunning views of Lower Manhattan after dark. Sail within 100 feet of the Statue of Liberty. Cruise under the Brooklyn Bridge, Manhattan Bridge and Williamsburg Bridge.</t>
+          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: New York: Exciting 2-Hour Harbor Lights Night Cruise</t>
+          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P2</t>
+          <t>PRODUCTCODE: 3763P30</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail from the World's Fair Marina in Flushing Meadows Queens. A delicious gourmet buffet is available in the dining decks. Live DJ Entertainment awaits you on our all-weather Rooftop Dance floor.</t>
+          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Public NYC Skyline and Statue of Liberty Dinner Cruise from Flushing Queens</t>
+          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 111861P16</t>
+          <t>PRODUCTCODE: 104964P71</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+          <t>Summarized description: This Friday NYC happy hour cruise will have you sailing aboard a spacious ship as you take in the sights. Sail in comfort and enjoy views of the city skyline and all of its landmarks. Live DJ mixing up nothing but the hits of the year.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
+          <t>Title: Friday Night Happy Hour Cruise</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 90219P227</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17704,6 +17704,231 @@
       <c r="H1147" t="inlineStr"/>
       <c r="I1147" t="inlineStr"/>
     </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>Summarized description: Get stunning views of Lower Manhattan after dark. Sail within 100 feet of the Statue of Liberty. Cruise under the Brooklyn Bridge, Manhattan Bridge and Williamsburg Bridge.</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr"/>
+      <c r="C1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
+      <c r="H1148" t="inlineStr"/>
+      <c r="I1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>Title: New York: Exciting 2-Hour Harbor Lights Night Cruise</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr"/>
+      <c r="I1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
+      <c r="I1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr"/>
+      <c r="C1151" t="inlineStr"/>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
+      <c r="H1151" t="inlineStr"/>
+      <c r="I1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 72092P2</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr"/>
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr"/>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="inlineStr"/>
+      <c r="H1152" t="inlineStr"/>
+      <c r="I1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>Summarized description: Set sail from the World's Fair Marina in Flushing Meadows Queens. A delicious gourmet buffet is available in the dining decks. Live DJ Entertainment awaits you on our all-weather Rooftop Dance floor.</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
+      <c r="D1153" t="inlineStr"/>
+      <c r="E1153" t="inlineStr"/>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
+      <c r="I1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>Title: Public NYC Skyline and Statue of Liberty Dinner Cruise from Flushing Queens</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr"/>
+      <c r="C1154" t="inlineStr"/>
+      <c r="D1154" t="inlineStr"/>
+      <c r="E1154" t="inlineStr"/>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr"/>
+      <c r="H1154" t="inlineStr"/>
+      <c r="I1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr"/>
+      <c r="C1155" t="inlineStr"/>
+      <c r="D1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr"/>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="inlineStr"/>
+      <c r="H1155" t="inlineStr"/>
+      <c r="I1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Dining Experiences']</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr"/>
+      <c r="C1156" t="inlineStr"/>
+      <c r="D1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr"/>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="inlineStr"/>
+      <c r="H1156" t="inlineStr"/>
+      <c r="I1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 111861P16</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr"/>
+      <c r="C1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr"/>
+      <c r="E1157" t="inlineStr"/>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr"/>
+      <c r="H1157" t="inlineStr"/>
+      <c r="I1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr"/>
+      <c r="C1158" t="inlineStr"/>
+      <c r="D1158" t="inlineStr"/>
+      <c r="E1158" t="inlineStr"/>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr"/>
+      <c r="H1158" t="inlineStr"/>
+      <c r="I1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr"/>
+      <c r="C1159" t="inlineStr"/>
+      <c r="D1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr"/>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="inlineStr"/>
+      <c r="H1159" t="inlineStr"/>
+      <c r="I1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr"/>
+      <c r="C1160" t="inlineStr"/>
+      <c r="D1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr"/>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr"/>
+      <c r="H1160" t="inlineStr"/>
+      <c r="I1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises']</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr"/>
+      <c r="C1161" t="inlineStr"/>
+      <c r="D1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr"/>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr"/>
+      <c r="H1161" t="inlineStr"/>
+      <c r="I1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr"/>
+      <c r="C1162" t="inlineStr"/>
+      <c r="D1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr"/>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr"/>
+      <c r="I1162" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/15081P466.xlsx
+++ b/experiment_results/15081P466.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -726,7 +726,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -801,7 +801,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -876,7 +876,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -951,7 +951,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1776,7 +1776,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -2526,7 +2526,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -2601,7 +2601,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -3201,7 +3201,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -3351,7 +3351,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -3426,7 +3426,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3651,7 +3651,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -3726,7 +3726,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -3801,7 +3801,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -3951,7 +3951,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -4101,7 +4101,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -4251,7 +4251,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -4401,7 +4401,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -4551,7 +4551,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -4626,7 +4626,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -4701,7 +4701,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -4776,7 +4776,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -4851,7 +4851,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -4926,7 +4926,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -5001,7 +5001,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -5076,7 +5076,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -5151,7 +5151,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -5526,7 +5526,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'Workshops and Classes']</t>
+          <t>Category: ['Cultural Cruises', 'Workshops and Classes', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -5751,7 +5751,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -6126,7 +6126,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -6201,7 +6201,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -6351,7 +6351,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -6576,7 +6576,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -6801,7 +6801,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -6876,7 +6876,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -6951,7 +6951,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -7026,7 +7026,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -7101,7 +7101,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -7176,7 +7176,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B446" t="inlineStr"/>
@@ -7251,7 +7251,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -7401,7 +7401,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -7476,7 +7476,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -7626,7 +7626,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -8001,7 +8001,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -8076,7 +8076,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
@@ -8151,7 +8151,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B511" t="inlineStr"/>
@@ -8301,7 +8301,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -8451,7 +8451,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B531" t="inlineStr"/>
@@ -8601,7 +8601,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -8676,7 +8676,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -9126,7 +9126,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -9276,7 +9276,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -9351,7 +9351,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -9501,7 +9501,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -9576,7 +9576,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -9651,7 +9651,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
@@ -9726,7 +9726,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B651" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B656" t="inlineStr"/>
@@ -10401,7 +10401,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B661" t="inlineStr"/>
@@ -10476,7 +10476,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B666" t="inlineStr"/>
@@ -10551,7 +10551,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B671" t="inlineStr"/>
@@ -10701,7 +10701,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B681" t="inlineStr"/>
@@ -10851,7 +10851,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B691" t="inlineStr"/>
@@ -10926,7 +10926,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B696" t="inlineStr"/>
@@ -11076,7 +11076,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B706" t="inlineStr"/>
@@ -11376,7 +11376,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B726" t="inlineStr"/>
@@ -11451,7 +11451,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B731" t="inlineStr"/>
@@ -11526,7 +11526,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B736" t="inlineStr"/>
@@ -11676,7 +11676,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -11826,7 +11826,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -11901,7 +11901,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -11976,7 +11976,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B766" t="inlineStr"/>
@@ -12201,7 +12201,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B781" t="inlineStr"/>
@@ -12351,7 +12351,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B791" t="inlineStr"/>
@@ -12426,7 +12426,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B796" t="inlineStr"/>
@@ -12501,7 +12501,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -12576,7 +12576,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12651,7 +12651,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B811" t="inlineStr"/>
@@ -12726,7 +12726,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -12801,7 +12801,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12876,7 +12876,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -12951,7 +12951,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13101,7 +13101,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13326,7 +13326,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13701,7 +13701,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B893" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P9</t>
+          <t>PRODUCTCODE: 125205P1</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious climate controlled glassed-enclosed observation cabin.</t>
+          <t>Summarized description: Sail along the Hudson River to see some of New York City's most famous landmarks. Take a perfect selfie with Lady Liberty on our open-air rooftop deck.</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and New York City Skyline Sightseeing Cruise</t>
+          <t>Title: New York City Freedom Liberty Cruise</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>TotalReviews: 461</t>
+          <t>TotalReviews: 1188</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5252CLIPPERCITY</t>
+          <t>PRODUCTCODE: 6288P9</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Summarized description: Step aboard a historic sailing ship and cruise around New York Harbor. Take in magnificent views of this grand city by day. See the Statue of Liberty, Ellis Island, the Manhattan skyline.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious climate controlled glassed-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Tall Ship Sail aboard Clipper City</t>
+          <t>Title: Statue of Liberty and New York City Skyline Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>TotalReviews: 234</t>
+          <t>TotalReviews: 461</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P12</t>
+          <t>PRODUCTCODE: 344890MIN</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 1.5-hour cruise along the Hudson River and New York Harbor on a classic 1920s-style yacht. Take in the beautiful skyline as the sun dips below the horizon.</t>
+          <t>Summarized description: Admire New York's famous skyline and iconic sights from the water. See top New York attractions including the Empire State Building, Chrysler Building, Statue of Liberty, Brooklyn Bridge and United Nations.</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Sunset Cruise on Yacht Manhattan </t>
+          <t>Title: New York City Skyline Cruise</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>TotalReviews: 232</t>
+          <t>TotalReviews: 271</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P21</t>
+          <t>PRODUCTCODE: 5252CLIPPERCITY</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted sailboat inspired by the pilot schooners of the 1890s. Sail past One World Trade, Ellis Island and the Statue of Liberty.</t>
+          <t>Summarized description: Step aboard a historic sailing ship and cruise around New York Harbor. Take in magnificent views of this grand city by day. See the Statue of Liberty, Ellis Island, the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Title: New York Sunset Schooner Cruise on the Hudson River</t>
+          <t>Title: NYC Statue of Liberty Tall Ship Sail aboard Clipper City</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>TotalReviews: 165</t>
+          <t>TotalReviews: 234</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P2</t>
+          <t>PRODUCTCODE: 6288P12</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: Enjoy a 1.5-hour cruise along the Hudson River and New York Harbor on a classic 1920s-style yacht. Take in the beautiful skyline as the sun dips below the horizon.</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
+          <t xml:space="preserve">Title: New York City Sunset Cruise on Yacht Manhattan </t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>TotalReviews: 125</t>
+          <t>TotalReviews: 232</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P1</t>
+          <t>PRODUCTCODE: 3763HAPPYHOUR</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
+          <t>Summarized description: Sail along and experience the Statue of Liberty, the Brooklyn Bridge and lower Manhattan with the calm of the evening sky. Unwind as you watch the sun set over the world's most beautiful skyline.</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Sightseeing Cruise</t>
+          <t>Title: NYC Circle Line Night Cruise with Lady Liberty and Skyline Views</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>TotalReviews: 102</t>
+          <t>TotalReviews: 210</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P20</t>
+          <t>PRODUCTCODE: 6288P21</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted schooner inspired by the pilot schooners of the 1890s. Sail past World One and Manhattan's towering financial district, Ellis Island and the Statue of Liberty.</t>
+          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted sailboat inspired by the pilot schooners of the 1890s. Sail past One World Trade, Ellis Island and the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Title: New York City Sailboat Day Cruise to the Statue of Liberty</t>
+          <t>Title: New York Sunset Schooner Cruise on the Hudson River</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>TotalReviews: 98</t>
+          <t>TotalReviews: 165</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11596P4</t>
+          <t>PRODUCTCODE: 3448TWILIGHT</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>Summarized description: Take an intimate luxury cruise of New York Harbor and enjoy views of the Statue of Liberty, Ellis Island, Governor's Island, the Brooklyn Bridge, Castle William, the Manhattan Bridge and the Freedom Tower. This boat tour is limited to 12 passengers, and your knowledgeable captain with teach you about the local history.</t>
+          <t>Summarized description: Watch the lights of America's largest city twinkle to life on this tranquil twilight cruise in New York Harbor. See top New York attractions such as the Empire State Building, Statue of Liberty and Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Title: Luxury Sailing Yacht Cruise of New York Harbor with Optional Champagne Upgrade</t>
+          <t>Title: New York City Twilight Cruise</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>TotalReviews: 69</t>
+          <t>TotalReviews: 147</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18830P4</t>
+          <t>PRODUCTCODE: 195909P2</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>Summarized description: Take in close-up views of the Statue of Liberty, Ellis Island and the Manhattan skyline. 105 minute sunset sail will be the highlight of your New York City stay.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Title: New York City Sunset Sail aboard Shearwater</t>
+          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 125</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P24</t>
+          <t>PRODUCTCODE: 12214P1</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner America 2.0 is 105-feet in length and has about 3600 square feet of sail area. Sail by Manhattan's Financial District, One World Trade and Ellis Island. Enjoy up-close views of Lady Liberty and a great photo opportunity.</t>
+          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Title: New York City Sunset Sail to the Statue of Liberty</t>
+          <t>Title: Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>TotalReviews: 49</t>
+          <t>TotalReviews: 102</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763P33</t>
+          <t>PRODUCTCODE: 6288P20</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>Summarized description: Sail away on New York’s newest after-hours cruise giving locals and tourists alike the most up-close view of Lady Liberty in front of the most breathtaking and colorful sunsets in the world. Expect to be hypnotized by the glowing panoramic views of Lower Manhattan, the Brooklyn Bridge, the New York Harbor and more in just sixty minutes!</t>
+          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted schooner inspired by the pilot schooners of the 1890s. Sail past World One and Manhattan's towering financial district, Ellis Island and the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Statue of Liberty Sunset Cruise </t>
+          <t>Title: New York City Sailboat Day Cruise to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 98</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P3</t>
+          <t>PRODUCTCODE: 6288P11</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: Enjoy views of Ellis Island, the Statue of Liberty and Governors Island on this night time cruise. Enjoy a private table in the main, climate controlled salon on this 1920s inspired motor yacht.</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Sunset Cruise and New York City Sky Line </t>
+          <t>Title: New York City Lights and Skyline Cruise on Yacht</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 93</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540P57</t>
+          <t>PRODUCTCODE: 18830P4</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>Summarized description: The See NYC Sightseeing cruise is the best way to view the Statue of Liberty and NYC’s most iconic sights - all in one hour. The sightseeing cruise includes breathtaking view of the Brooklyn Bridge, Ellis Island, One World Trade Center (Freedom Tower) and more.Enjoy live onboard narration (English) or follow along in one of nine languages using the Hornblower AudioTour Guide app.</t>
+          <t>Summarized description: Take in close-up views of the Statue of Liberty, Ellis Island and the Manhattan skyline. 105 minute sunset sail will be the highlight of your New York City stay.</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Title: New York See NYC Sightseeing Cruise</t>
+          <t>Title: New York City Sunset Sail aboard Shearwater</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 53</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P43</t>
+          <t>PRODUCTCODE: 6288P24</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>Summarized description: Experience New York from the water on this spectacular holiday cruise aboard a 1920s-style classic boat. See all the major sites of Manhattan along the water and enjoy a beverage in the glassed-in, heated observatory.</t>
+          <t>Summarized description: Schooner America 2.0 is 105-feet in length and has about 3600 square feet of sail area. Sail by Manhattan's Financial District, One World Trade and Ellis Island. Enjoy up-close views of Lady Liberty and a great photo opportunity.</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Title: New York City Christmas Holiday Statue &amp; Skyline Cocoa Cruise</t>
+          <t>Title: New York City Sunset Sail to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>TotalReviews: 31</t>
+          <t>TotalReviews: 49</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P27</t>
+          <t>PRODUCTCODE: 6288P27</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island, and the Brooklyn Bridge on a sunset cruise. Enjoy views of New York City's skyline and watch as the city lights come to life.</t>
+          <t>Summarized description: Enjoy a sunset cruise aboard a 1950s-style yacht, departing from North Cove Marina. Get up close on a slow pass by the Statue of Liberty &amp; Ellis Island as the boat cruises around New York Harbor and up the Hudson River.</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Title: New York: Statue of Liberty and Ellis Island Sunset Cruise</t>
+          <t>Title: Sunset Cruise from Lower Manhattan</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 40</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P3</t>
+          <t>PRODUCTCODE: 3763P33</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise around the Statue of Liberty and Ellis Island with the New York City Skyline. 60-minute sightseeing cruise also journeys under the Brooklyn Bridge.</t>
+          <t>Summarized description: Sail away on New York’s newest after-hours cruise giving locals and tourists alike the most up-close view of Lady Liberty in front of the most breathtaking and colorful sunsets in the world. Expect to be hypnotized by the glowing panoramic views of Lower Manhattan, the Brooklyn Bridge, the New York Harbor and more in just sixty minutes!</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island 60 Minute sightseeing Cruise</t>
+          <t xml:space="preserve">Title: New York City Statue of Liberty Sunset Cruise </t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P66</t>
+          <t>PRODUCTCODE: 195909P3</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
+          <t xml:space="preserve">Title: Statue of Liberty Sunset Cruise and New York City Sky Line </t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P50</t>
+          <t>PRODUCTCODE: 2540P57</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
+          <t>Summarized description: The See NYC Sightseeing cruise is the best way to view the Statue of Liberty and NYC’s most iconic sights - all in one hour. The sightseeing cruise includes breathtaking view of the Brooklyn Bridge, Ellis Island, One World Trade Center (Freedom Tower) and more.Enjoy live onboard narration (English) or follow along in one of nine languages using the Hornblower AudioTour Guide app.</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Title: New York City Sunset Cocktail Cruise on Small Yacht</t>
+          <t>Title: New York See NYC Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3448JULY4</t>
+          <t>PRODUCTCODE: 6288P43</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Summarized description: 4th of July cruise from Pier 78 in Midtown to New York Harbor. Enjoy the best views of the Macy's fireworks display. Listen to music played by the onboard DJ.</t>
+          <t>Summarized description: Experience New York from the water on this spectacular holiday cruise aboard a 1920s-style classic boat. See all the major sites of Manhattan along the water and enjoy a beverage in the glassed-in, heated observatory.</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Title: 4th of July Fireworks Cruise in New York City</t>
+          <t>Title: New York City Christmas Holiday Statue &amp; Skyline Cocoa Cruise</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 31</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3100JULY4LOB</t>
+          <t>PRODUCTCODE: 2800P18</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Summarized description: A DJ will be spinning all night as we sail along the New York Harbor. We’ll cruise down the Hudson River, rounding the tip of Manhattan, and pull into position in the NYC Harbor, with a view of the Statue of Liberty and the Brooklyn Bridge.</t>
+          <t>Summarized description: You'll enjoy dazzling skyline views of Manhattan on this 2-hour cruise. From the Statue of Liberty to the Brooklyn Bridge, New York's landmarks are especially memorable when lit up at night.</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Title: New York City Fourth of July Fireworks Cruise with Lobster Dinner</t>
+          <t>Title: Circle Line: Harbor Lights Cruise with Your Honey</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763FOURTH</t>
+          <t>PRODUCTCODE: 74526P27</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>Summarized description: Macy's fireworks are one of the most famous fireworks displays in the world. Enjoy the most thrilling views of New York City's famous 4th of July Macy's fireworks. Enjoy a buffet dinner and dessert.</t>
+          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island, and the Brooklyn Bridge on a sunset cruise. Enjoy views of New York City's skyline and watch as the city lights come to life.</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Title: NYC July 4th Fireworks and Skyline Cruise</t>
+          <t>Title: New York: Statue of Liberty and Ellis Island Sunset Cruise</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P7</t>
+          <t>PRODUCTCODE: 34556P8</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 60 minute sightseeing cruise departing from the Brooklyn Bridge. See the NYC famous skyline. We will sail right next to the Statue of Liberty and you will have incredible opportunities to take selfies and group phones.</t>
+          <t>Summarized description: Get an unobstructed view of the Manhattan skyline, Freedom Tower, Empire State Building and the Statue of Liberty. Passengers are free to bring any food or drinks onboard the boat.</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Title: NOW OPEN: Statue of Liberty Sightseeing Cruise 60 Min</t>
+          <t xml:space="preserve">Title: Private Luxury Sunset Boat Tour in New York City - 2 Hour </t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3100LOBNYE</t>
+          <t>PRODUCTCODE: 336379P66</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>Summarized description: Get up-close views and the glittering New York skyline as you glide gracefully along New York Harbor. Savor a hearty lobster buffet dinner, and dance the night away to sizzling tunes. You're then treated to a front-row seat for one of the biggest fireworks shows in the US.</t>
+          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Title: New York City New Year's Eve Fireworks Cruise with Lobster Dinner</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P41</t>
+          <t>PRODUCTCODE: 6288P22</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Summarized description: Take in the sites in a glassed-in observatory aboard a classic 1920s-style yacht. Great photo opportunity to capture the New York City skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: Sail past Manhattan's financial district, Ellis Island and the Statue of Liberty. Enjoy this beautiful boat, 80-feet in length and about 2000 square feet of sail area.</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Holiday Sunset Sightseeing Cruise </t>
+          <t>Title: New York City Skyline Lights Sail</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 173559P7</t>
+          <t>PRODUCTCODE: 18830P5</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Summarized description: The See NYC Sightseeing cruise is the best way to view the Statue of Liberty and NYC’s most iconic sights - all in one hour. The cruise includes a breathtaking view of the Brooklyn Bridge, Ellis Island, One World Trade Center (Freedom Tower), the awe-inspiring Manhattan skyline and more.Enjoy live onboard narration (English) or follow along in one of nine languages using the Hornblower AudioTour Guide app.</t>
+          <t>Summarized description: Glide by the Statue of Liberty all-aglow and marvel at the surreal experience of NY Harbor by night. This 90-minute evening sail offers the perfect opportunity to sit back and relax while you take in close-up views.</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Title: See NYC Sightseeing Cruise in New York</t>
+          <t>Title: New York City Lights Sail</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P49</t>
+          <t>PRODUCTCODE: 6288P50</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner America 2.0 offers a relaxing city lights tour around New York. See the New York City skyline, the Statue of Liberty and Ellis Island lit up at night.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Skyline Night Sailboat Tour </t>
+          <t>Title: New York City Sunset Cocktail Cruise on Small Yacht</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 339911P3</t>
+          <t>PRODUCTCODE: 6288P41</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
+          <t>Summarized description: Take in the sites in a glassed-in observatory aboard a classic 1920s-style yacht. Great photo opportunity to capture the New York City skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
+          <t xml:space="preserve">Title: New York City Holiday Sunset Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540P56</t>
+          <t>PRODUCTCODE: 336379P5</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Summarized description: Live DJ entertainment, a robust lunch buffet, and first-class service. Fun and scenic, our weekday lunch cruise offers a unique alternative to lunch in New York.</t>
+          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. Enjoy the live tour guide full of history and information about NYC. Sip a glass of wine or a cocktail from the cash bar on board.</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Title: Lady Liberty Lunch Cruise</t>
+          <t xml:space="preserve">Title: Harbor City Lights of the NYC Skyline Cruise </t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P51</t>
+          <t>PRODUCTCODE: 173559P7</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat navigates New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
+          <t>Summarized description: The See NYC Sightseeing cruise is the best way to view the Statue of Liberty and NYC’s most iconic sights - all in one hour. The cruise includes a breathtaking view of the Brooklyn Bridge, Ellis Island, One World Trade Center (Freedom Tower), the awe-inspiring Manhattan skyline and more.Enjoy live onboard narration (English) or follow along in one of nine languages using the Hornblower AudioTour Guide app.</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Title: New York City Day Cruise by Statue of Liberty on Small Yacht</t>
+          <t>Title: See NYC Sightseeing Cruise in New York</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P231</t>
+          <t>PRODUCTCODE: 6288P49</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy the only sightseeing cruise in New York City to completely circumnavigate the island of Manhattan. Sail within 100 feet of the Statue of Liberty for the best photo opportunities.</t>
+          <t>Summarized description: Schooner America 2.0 offers a relaxing city lights tour around New York. See the New York City skyline, the Statue of Liberty and Ellis Island lit up at night.</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Title: New York Marvelous Cruise, Circle Line Best of – All Around Manhattan</t>
+          <t xml:space="preserve">Title: New York City Skyline Night Sailboat Tour </t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 305165P24</t>
+          <t>PRODUCTCODE: 339911P3</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your tour guide for a 1H introduction excursion and get an amazing view of the NYC skyline and the Statue of Liberty. Enjoy the ride over to Staten Island on the Staten Island Ferry. When your arrive at Staten Island,your tour guide will take you to the theStaten Island 9/11 Memorial.</t>
+          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Title: NYC : Guided Excursion by ferry &amp; View of Statue of Liberty</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 170459P4</t>
+          <t>PRODUCTCODE: 2540P56</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Summarized description: Captain Martin holds a USCG 100 Ton Master Captain’s License. Sailor of the New York Harbor for 25 years, he is an expert guide to NYC's waterways.</t>
+          <t>Summarized description: Live DJ entertainment, a robust lunch buffet, and first-class service. Fun and scenic, our weekday lunch cruise offers a unique alternative to lunch in New York.</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Title: Private Sunset Sail to the Statue of Liberty</t>
+          <t>Title: Lady Liberty Lunch Cruise</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P18</t>
+          <t>PRODUCTCODE: 6288P51</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Summarized description: Pass right next to the Statue of Liberty and Ellis Island. Enjoy unforgettable photo opportunities as you capture spectacular views of these iconic monuments and the Manhattan skyline.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat navigates New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Sightseeing Cruise &amp; Double Decker Tour</t>
+          <t>Title: New York City Day Cruise by Statue of Liberty on Small Yacht</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P6</t>
+          <t>PRODUCTCODE: 170459P4</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Summarized description: Seating is limited to 150 and there is an onboard cash bar should you wish to buy more drinks. Relish a buffet dinner, with a glass of Champagne or wine as you enjoy the NYC Skyline.</t>
+          <t>Summarized description: Captain Martin holds a USCG 100 Ton Master Captain’s License. Sailor of the New York Harbor for 25 years, he is an expert guide to NYC's waterways.</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Title: NYC Skyline Buffet Dinner Cruise with live DJ</t>
+          <t>Title: Private Sunset Sail to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P52</t>
+          <t>PRODUCTCODE: 74526P18</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
+          <t>Summarized description: Pass right next to the Statue of Liberty and Ellis Island. Enjoy unforgettable photo opportunities as you capture spectacular views of these iconic monuments and the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
+          <t>Title: NYC Statue of Liberty Sightseeing Cruise &amp; Double Decker Tour</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P34</t>
+          <t>PRODUCTCODE: 195909P6</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. We will depart close to the Brooklyn Bridge and Manhattan Bridge. As we cruise you will see the NYC Sky Scraper with over 7000 buildings over 115' tall.</t>
+          <t>Summarized description: Seating is limited to 150 and there is an onboard cash bar should you wish to buy more drinks. Relish a buffet dinner, with a glass of Champagne or wine as you enjoy the NYC Skyline.</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City: Night Skyline Cruise with Cash Bar </t>
+          <t>Title: NYC Skyline Buffet Dinner Cruise with live DJ</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P73</t>
+          <t>PRODUCTCODE: 336379P52</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
+          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
+          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25404THNEWYORK</t>
+          <t>PRODUCTCODE: 336379P34</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a picnic-style selection of American favorites at the buffet, dance to music from the DJ and watch fireworks. Enjoy views of iconic NYC landmarks such as the Statue of Liberty, Ellis Island and the Brooklyn Bridge.</t>
+          <t>Summarized description: Enjoy a relaxing evening as we cruise the East River to the Hudson River. We will depart close to the Brooklyn Bridge and Manhattan Bridge. As we cruise you will see the NYC Sky Scraper with over 7000 buildings over 115' tall.</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Title: 4th of July Dinner Cruise and Fireworks in New York City</t>
+          <t xml:space="preserve">Title: New York City: Night Skyline Cruise with Cash Bar </t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800HAPPY</t>
+          <t>PRODUCTCODE: 336379P73</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy live music, open bar and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Title: Circle Line: Summer Happy Hour Cruise with Open Bar Included</t>
+          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P4</t>
+          <t>PRODUCTCODE: 2800HAPPY</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Summarized description: Board the Manhattan II for an unforgettable night under the city lights of New York City. You’ll get a buffet, wine, and beer aboard the vessel with the ability to see the fireworks right from the water.</t>
+          <t>Summarized description: Enjoy live music, open bar and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Title: NYC 4th of July Fireworks Cruise Premium Admission</t>
+          <t>Title: Circle Line: Summer Happy Hour Cruise with Open Bar Included</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P28</t>
+          <t>PRODUCTCODE: 173559P4</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Summarized description: One World Trade observation deck entrance where you can go anytime you wish. 60 minute sightseeing cruise where you will get close up to Lady Liberty and see the full NYC Skyline.</t>
+          <t>Summarized description: The New York City Lights Dinner Cruise provides the ultimate setting to make your night out or special occasion a memorable one. Aboard your cruise, you’ll enjoy a decadent three-course meal and artisan cocktails prepared by our very own culinary veterans. Join our award-winning DJ on the dance floor or take in NYC’s iconic landmarks from our climate-controlled sun deck.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: One World Trade Observations Deck and Statue of Liberty Sightseeing Cruise </t>
+          <t>Title: New York City Lights Dinner Cruise</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P189</t>
+          <t>PRODUCTCODE: 5252P18</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
+          <t>Summarized description: Enjoy a one hour happy hour cruise along New York Harbor. Choose from a variety of cruise options to include beer and wine half off. See the best of the Manhattan’s iconic landmarks.</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: Happy Hour on the Harbor</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18830P6</t>
+          <t>PRODUCTCODE: 5042P73</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy happy hour on the sea with the New York City skyline as your background. Sail smoothly from the end of your week into the start of your weekend on board Manhattan's most elegant sailing ship.</t>
+          <t>Summarized description: This scenic cruise offers a 90-minute comprehensive experience of NYC’s must-see sights. With convenient Downtown pick-up location, board to see the historic and awe-inspiring Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Title: New York City Happy Hour Sail</t>
+          <t>Title: NYC Downtown Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P26</t>
+          <t>PRODUCTCODE: 336379P9</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
+          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
+          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64702P18</t>
+          <t>PRODUCTCODE: 339911P11</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Summarized description: New Jersey's waterfront is the best-kept secret. The city's iconic skyline will be seen from across the Hudson River. Don't forget your camera! And prepare to be astounded!</t>
+          <t>Summarized description: Enjoy an all-you-can-eat dinner with unlimited non-alcoholic drinks and dance on the upper deck to tunes played by the live DJ. Enjoy views of City Hall, the Woolworth Building, South Street Seaport, and Wall Street.</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Title: New York City Skyline and 4th of July Fireworks</t>
+          <t>Title: NYC Manhattan Skyline and Statue of Liberty Dinner Cruise Ticket</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P16</t>
+          <t>PRODUCTCODE: 336379P28</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises. Check out our reviews!</t>
+          <t>Summarized description: One World Trade observation deck entrance where you can go anytime you wish. 60 minute sightseeing cruise where you will get close up to Lady Liberty and see the full NYC Skyline.</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Title: NYC Skyline Cruises with Holiday Lights and Dinner * Queens * Free Parking *</t>
+          <t xml:space="preserve">Title: One World Trade Observations Deck and Statue of Liberty Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P22</t>
+          <t>PRODUCTCODE: 90219P189</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Summarized description: This 3-hour New York City Skyline Cruise aboard the Skyline Princess conveniently sails from the World's Fair Marina in Flushing, Queens. The cruise features our DJ spinning a wide range of hits on our dance floor located on our Skyline Roof Top Deck.</t>
+          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Title: 3-Hour Valentine's NYC Skyline Dinner Cruise from Queens sailing 7PM</t>
+          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72092P17</t>
+          <t>PRODUCTCODE: 34556P11</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Summarized description: This 3-hour New York City Skyline Cruise aboard the Skyline Princess conveniently sails from the World's Fair Marina in Flushing, Queens. The cruise features our DJ spinning a wide range of hits on our dance floor located on our Skyline Roof Top Deck.</t>
+          <t>Summarized description: Get an unobstructed view of the Manhattan skyline, Freedom Tower, Empire State Building and the Statue of Liberty. Passengers are free to bring any food or drinks onboard the boat.</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Title: 3-Hour NYC Skyline Holiday Dinner Cruise from Queens * FREE PARKING *</t>
+          <t>Title: Private Luxury Sunset Boat Tour in New York City - 1 Hour</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17982P2</t>
+          <t>PRODUCTCODE: 72092P26</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Summarized description: Two hour sails for up to six passengers, seven days a week. An elegant sailing tour of New York Harbor aboard a classic sailboat.</t>
+          <t>Summarized description: Enjoy fabulous food, entertainment, and spectacular views while celebrating a special event to make any day one of a kind. Enjoy the stunning New York Harbor on the beautiful Skyline Princess.</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Title: New York City Sailing Tour</t>
+          <t>Title: NYC Skyline Dinner &amp; Sightseeing Cruise - WFM Queens *FreeParking</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800TTDC</t>
+          <t>PRODUCTCODE: 5252HARBOR</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Summarized description: DJ entertainment, drinks, food and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
+          <t>Summarized description: The Hudson River is one of the world's most famous waterways. Cruise ships can take up to 90 minutes to sail through the city. See the world’s most famous skyline light up the night.</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Title: Circle Line: Manhattan Happy Hour Cruise</t>
+          <t>Title: New York City Harbor Lights Sail</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5252P21</t>
+          <t>PRODUCTCODE: 18830P6</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Summarized description: Best harbor cruise in downtown Manhattan. See the sights and relax with live Brazilian Guitar playing Bossa Nova with free-flowing cocktails. Start your Sunday out right.</t>
+          <t>Summarized description: Enjoy happy hour on the sea with the New York City skyline as your background. Sail smoothly from the end of your week into the start of your weekend on board Manhattan's most elegant sailing ship.</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York City Easy Sunday Cocktail &amp; Jazz Sail </t>
+          <t>Title: New York City Happy Hour Sail</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 178998P1</t>
+          <t>PRODUCTCODE: 74526P26</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Summarized description: Sip on champagne and watch the sun dip behind the Statue of Liberty. Relax in an elegant atmosphere with a complimentary house bar. See the 'world's most famous skyline at sunset'</t>
+          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Title: New York Champagne Sunset Sail Aboard a Schooner</t>
+          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9048P3</t>
+          <t>PRODUCTCODE: 72092P18</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>Summarized description: The 3-hour happy hour cruise of New York Harbor is the perfect way to unwind. Whether you’re a tourist in the Big Apple or you just want to relax with your coworkers after a day’s work in Manhattan.</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises. Check out our reviews!</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Title: Sunset After Work Happy Hour Cruise</t>
+          <t>Title: NYC Skyline Holiday Dinner Cruise from Queens * FREE PARKING *</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P19</t>
+          <t>PRODUCTCODE: 72092P15</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise will pass the Statue of Liberty, Ellis Island, the Brooklyn Bridge and more. We will slow the cruise near the famous Lady Liberty for incredible photo opportunity.</t>
+          <t>Summarized description: This 3-hour New York City Skyline Cruise aboard the Skyline Princess conveniently sails from the World's Fair Marina in Flushing, Queens. The cruise features our DJ spinning a wide range of hits on our dance floor located on our Skyline Roof Top Deck.</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Harbor Skyline and NYC Lights and Statue of Liberty </t>
+          <t>Title: 3-Hour NYC Skyline Dinner Yacht Party Cruise from Queens with Free Parking</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5042P76</t>
+          <t>PRODUCTCODE: 72092P13</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>Summarized description: Dinner cruise around New York Harbor and Manhattan offers stunning views of the city and some of the world's most famous landmarks. Indulge in a delicious buffet dinner and then groove to the on-board DJ'ed music being spun.</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for special event cruises.</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Title: NYC Valentine's Day Fireworks Dinner Cruise</t>
+          <t>Title: NYC Skyline Brunch Cruise from Queens * Free Parking *</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122220P3</t>
+          <t>PRODUCTCODE: 72092P16</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises. Check out our reviews!</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Title: 60-Minute Statue of Liberty Cruise (from Downtown New York City)</t>
+          <t>Title: NYC Skyline Cruises with Holiday Lights and Dinner * Queens * Free Parking *</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P3</t>
+          <t>PRODUCTCODE: 72092P22</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
+          <t>Summarized description: This 3-hour New York City Skyline Cruise aboard the Skyline Princess conveniently sails from the World's Fair Marina in Flushing, Queens. The cruise features our DJ spinning a wide range of hits on our dance floor located on our Skyline Roof Top Deck.</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
+          <t>Title: 3-Hour Valentine's NYC Skyline Dinner Cruise from Queens sailing 7PM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763P30</t>
+          <t>PRODUCTCODE: 6288P46</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
+          <t>Summarized description: A festive NYE experience on a 1920s style yacht! Enjoy a 3-glass sparkling wine flight paired with a custom cheese plate. Cruise by all the main sites of Manhattan as you sip bubbly.</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
+          <t>Title: NYC New Year's Eve Champagne Tasting Cruise</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P227</t>
+          <t>PRODUCTCODE: 3100P6</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Summarized description: Get stunning views of Lower Manhattan after dark. Sail within 100 feet of the Statue of Liberty. Cruise under the Brooklyn Bridge, Manhattan Bridge and Williamsburg Bridge.</t>
+          <t>Summarized description: Get up-close views and the glittering New York skyline as you glide gracefully along New York Harbor. Savor a hearty lobster buffet dinner, and dance the night away to sizzling tunes. You're then treated to a front-row seat for one of the biggest fireworks shows in the US.</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Title: New York: Exciting 2-Hour Harbor Lights Night Cruise</t>
+          <t>Title: New York City New Year's Eve Fireworks Cruise with Lobster Dinner-Group Option</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5042SPIRIT4TH</t>
+          <t>PRODUCTCODE: 104964P12</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>Summarized description: Take pictures of Lady Liberty and the Brooklyn Bridge while you dine. Head topside for nighttime shots of the skyline from Spirit's rooftop lounge. Includes a 5-course buffet dinner, an open premium bar, and DJ entertainment.</t>
+          <t>Summarized description: The Hornblower Yacht has not one, but two spacious, climate-controlled interior decks. Get up close and personal with The Statue of Liberty, Freedom Towers, and the city’s many famous bridges.</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Title: New York Independence Day Fireworks Dinner Cruise</t>
+          <t>Title: Friday Night Sunset Happy Hour Cruise - NYC - Pier 40</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 339911P2</t>
+          <t>PRODUCTCODE: 6390P11</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Summarized description: The cruise departs from Pier 36 and passes under the Manhattan and Brooklyn bridges. Enjoy a buffet dinner with unlimited non-alcoholic drinks, a live DJ, and toys for the children.</t>
+          <t>Summarized description: Sail around the NY harbor on this NYC sunset jazz cruise. During your three hour sail, delight in breathtaking views of the Statue of Liberty and the illuminated Manhattan skyline. Enjoy smooth Jazz sounds in the background.</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: July 4 Macy's Fireworks and Buffet Dinner </t>
+          <t>Title: NYC Sunset Jazz Cruise</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16890P17</t>
+          <t>PRODUCTCODE: 72092P8</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise along Manhattan's skyline enjoying featured entertainment by Broadway and Cirque du Soleil-inspired performers. Delight in breathtaking views of the Brooklyn Bridge, Ellis Island, the Statue of Liberty, Wall Street and New York Harbor.</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises. Check out our reviews!</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Title: Premium Macy’s 4th of July Fireworks Cruise – All-inclusive Yacht Dinner with Broadway Entertainment</t>
+          <t>Title: NYC Skyline and Statue of Liberty Dinner Cruise from Queens</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5042NYE4TH</t>
+          <t>PRODUCTCODE: 2800TTDC</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>Summarized description: VIP experience includes a 5-course buffet dinner, an open premium bar and live DJ entertainment. Cruise along New York Harbor and enjoy views of Manhattan’s stunning skyline dotted by famous landmarks.</t>
+          <t>Summarized description: DJ entertainment, drinks, food and dancing as you cruise along the Hudson River and New York Harbor. You’ll be treated to panoramic views of the Manhattan skyline and the Statue of Liberty at sunset.</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Title: NYC Fourth of July Luxury Dinner Cruise</t>
+          <t>Title: Circle Line: Manhattan Happy Hour Cruise</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 111861P16</t>
+          <t>PRODUCTCODE: 72092P6</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises.</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
+          <t>Title: NYC Skyline and Statue of Liberty Dinner Cruise from Queens</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800P32</t>
+          <t>PRODUCTCODE: 178998P1</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>Summarized description: Circle Line is celebrating 75 years with a special package. The package includes a 1-Hour Liberty Cruise departing from Pier 83. A ticket to the Empire State Building and a ticket to Intrepid Sea, Air &amp; Space Museum.</t>
+          <t>Summarized description: Sip on champagne and watch the sun dip behind the Statue of Liberty. Relax in an elegant atmosphere with a complimentary house bar. See the 'world's most famous skyline at sunset'</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Title: NYC Tour Package: Liberty Cruise, Empire State, Intrepid Museum</t>
+          <t>Title: New York Champagne Sunset Sail Aboard a Schooner</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 9048P3</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18859,6 +18859,981 @@
       <c r="H1224" t="inlineStr"/>
       <c r="I1224" t="inlineStr"/>
     </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>Summarized description: The 3-hour happy hour cruise of New York Harbor is the perfect way to unwind. Whether you’re a tourist in the Big Apple or you just want to relax with your coworkers after a day’s work in Manhattan.</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr"/>
+      <c r="C1225" t="inlineStr"/>
+      <c r="D1225" t="inlineStr"/>
+      <c r="E1225" t="inlineStr"/>
+      <c r="F1225" t="inlineStr"/>
+      <c r="G1225" t="inlineStr"/>
+      <c r="H1225" t="inlineStr"/>
+      <c r="I1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>Title: Sunset After Work Happy Hour Cruise</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr"/>
+      <c r="C1226" t="inlineStr"/>
+      <c r="D1226" t="inlineStr"/>
+      <c r="E1226" t="inlineStr"/>
+      <c r="F1226" t="inlineStr"/>
+      <c r="G1226" t="inlineStr"/>
+      <c r="H1226" t="inlineStr"/>
+      <c r="I1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr"/>
+      <c r="C1227" t="inlineStr"/>
+      <c r="D1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr"/>
+      <c r="F1227" t="inlineStr"/>
+      <c r="G1227" t="inlineStr"/>
+      <c r="H1227" t="inlineStr"/>
+      <c r="I1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>Category: ['Dining Experiences']</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr"/>
+      <c r="C1228" t="inlineStr"/>
+      <c r="D1228" t="inlineStr"/>
+      <c r="E1228" t="inlineStr"/>
+      <c r="F1228" t="inlineStr"/>
+      <c r="G1228" t="inlineStr"/>
+      <c r="H1228" t="inlineStr"/>
+      <c r="I1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 336379P19</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr"/>
+      <c r="C1229" t="inlineStr"/>
+      <c r="D1229" t="inlineStr"/>
+      <c r="E1229" t="inlineStr"/>
+      <c r="F1229" t="inlineStr"/>
+      <c r="G1229" t="inlineStr"/>
+      <c r="H1229" t="inlineStr"/>
+      <c r="I1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>Summarized description: Cruise will pass the Statue of Liberty, Ellis Island, the Brooklyn Bridge and more. We will slow the cruise near the famous Lady Liberty for incredible photo opportunity.</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr"/>
+      <c r="C1230" t="inlineStr"/>
+      <c r="D1230" t="inlineStr"/>
+      <c r="E1230" t="inlineStr"/>
+      <c r="F1230" t="inlineStr"/>
+      <c r="G1230" t="inlineStr"/>
+      <c r="H1230" t="inlineStr"/>
+      <c r="I1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: NYC: Harbor Skyline and NYC Lights and Statue of Liberty </t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr"/>
+      <c r="C1231" t="inlineStr"/>
+      <c r="D1231" t="inlineStr"/>
+      <c r="E1231" t="inlineStr"/>
+      <c r="F1231" t="inlineStr"/>
+      <c r="G1231" t="inlineStr"/>
+      <c r="H1231" t="inlineStr"/>
+      <c r="I1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr"/>
+      <c r="C1232" t="inlineStr"/>
+      <c r="D1232" t="inlineStr"/>
+      <c r="E1232" t="inlineStr"/>
+      <c r="F1232" t="inlineStr"/>
+      <c r="G1232" t="inlineStr"/>
+      <c r="H1232" t="inlineStr"/>
+      <c r="I1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises']</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr"/>
+      <c r="C1233" t="inlineStr"/>
+      <c r="D1233" t="inlineStr"/>
+      <c r="E1233" t="inlineStr"/>
+      <c r="F1233" t="inlineStr"/>
+      <c r="G1233" t="inlineStr"/>
+      <c r="H1233" t="inlineStr"/>
+      <c r="I1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 194024P2</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr"/>
+      <c r="C1234" t="inlineStr"/>
+      <c r="D1234" t="inlineStr"/>
+      <c r="E1234" t="inlineStr"/>
+      <c r="F1234" t="inlineStr"/>
+      <c r="G1234" t="inlineStr"/>
+      <c r="H1234" t="inlineStr"/>
+      <c r="I1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>Summarized description: Clear schedule, less wait time, great view at the pier easy time lapse. Minutes walk from Wall Street, seamless to many downtown attractions.</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr"/>
+      <c r="C1235" t="inlineStr"/>
+      <c r="D1235" t="inlineStr"/>
+      <c r="E1235" t="inlineStr"/>
+      <c r="F1235" t="inlineStr"/>
+      <c r="G1235" t="inlineStr"/>
+      <c r="H1235" t="inlineStr"/>
+      <c r="I1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>Title: Statue of Liberty Cruise</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr"/>
+      <c r="C1236" t="inlineStr"/>
+      <c r="D1236" t="inlineStr"/>
+      <c r="E1236" t="inlineStr"/>
+      <c r="F1236" t="inlineStr"/>
+      <c r="G1236" t="inlineStr"/>
+      <c r="H1236" t="inlineStr"/>
+      <c r="I1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr"/>
+      <c r="C1237" t="inlineStr"/>
+      <c r="D1237" t="inlineStr"/>
+      <c r="E1237" t="inlineStr"/>
+      <c r="F1237" t="inlineStr"/>
+      <c r="G1237" t="inlineStr"/>
+      <c r="H1237" t="inlineStr"/>
+      <c r="I1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr"/>
+      <c r="C1238" t="inlineStr"/>
+      <c r="D1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr"/>
+      <c r="F1238" t="inlineStr"/>
+      <c r="G1238" t="inlineStr"/>
+      <c r="H1238" t="inlineStr"/>
+      <c r="I1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 122220P3</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr"/>
+      <c r="C1239" t="inlineStr"/>
+      <c r="D1239" t="inlineStr"/>
+      <c r="E1239" t="inlineStr"/>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="inlineStr"/>
+      <c r="H1239" t="inlineStr"/>
+      <c r="I1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
+      <c r="C1240" t="inlineStr"/>
+      <c r="D1240" t="inlineStr"/>
+      <c r="E1240" t="inlineStr"/>
+      <c r="F1240" t="inlineStr"/>
+      <c r="G1240" t="inlineStr"/>
+      <c r="H1240" t="inlineStr"/>
+      <c r="I1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>Title: 60-Minute Statue of Liberty Cruise (from Downtown New York City)</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr"/>
+      <c r="C1241" t="inlineStr"/>
+      <c r="D1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr"/>
+      <c r="F1241" t="inlineStr"/>
+      <c r="G1241" t="inlineStr"/>
+      <c r="H1241" t="inlineStr"/>
+      <c r="I1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr"/>
+      <c r="C1242" t="inlineStr"/>
+      <c r="D1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr"/>
+      <c r="F1242" t="inlineStr"/>
+      <c r="G1242" t="inlineStr"/>
+      <c r="H1242" t="inlineStr"/>
+      <c r="I1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>Category: ['Transportation &amp; Travel Services']</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr"/>
+      <c r="C1243" t="inlineStr"/>
+      <c r="D1243" t="inlineStr"/>
+      <c r="E1243" t="inlineStr"/>
+      <c r="F1243" t="inlineStr"/>
+      <c r="G1243" t="inlineStr"/>
+      <c r="H1243" t="inlineStr"/>
+      <c r="I1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 336379P3</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr"/>
+      <c r="C1244" t="inlineStr"/>
+      <c r="D1244" t="inlineStr"/>
+      <c r="E1244" t="inlineStr"/>
+      <c r="F1244" t="inlineStr"/>
+      <c r="G1244" t="inlineStr"/>
+      <c r="H1244" t="inlineStr"/>
+      <c r="I1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr"/>
+      <c r="C1245" t="inlineStr"/>
+      <c r="D1245" t="inlineStr"/>
+      <c r="E1245" t="inlineStr"/>
+      <c r="F1245" t="inlineStr"/>
+      <c r="G1245" t="inlineStr"/>
+      <c r="H1245" t="inlineStr"/>
+      <c r="I1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr"/>
+      <c r="C1246" t="inlineStr"/>
+      <c r="D1246" t="inlineStr"/>
+      <c r="E1246" t="inlineStr"/>
+      <c r="F1246" t="inlineStr"/>
+      <c r="G1246" t="inlineStr"/>
+      <c r="H1246" t="inlineStr"/>
+      <c r="I1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr"/>
+      <c r="C1247" t="inlineStr"/>
+      <c r="D1247" t="inlineStr"/>
+      <c r="E1247" t="inlineStr"/>
+      <c r="F1247" t="inlineStr"/>
+      <c r="G1247" t="inlineStr"/>
+      <c r="H1247" t="inlineStr"/>
+      <c r="I1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises']</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr"/>
+      <c r="C1248" t="inlineStr"/>
+      <c r="D1248" t="inlineStr"/>
+      <c r="E1248" t="inlineStr"/>
+      <c r="F1248" t="inlineStr"/>
+      <c r="G1248" t="inlineStr"/>
+      <c r="H1248" t="inlineStr"/>
+      <c r="I1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 3763P30</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr"/>
+      <c r="C1249" t="inlineStr"/>
+      <c r="D1249" t="inlineStr"/>
+      <c r="E1249" t="inlineStr"/>
+      <c r="F1249" t="inlineStr"/>
+      <c r="G1249" t="inlineStr"/>
+      <c r="H1249" t="inlineStr"/>
+      <c r="I1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr"/>
+      <c r="C1250" t="inlineStr"/>
+      <c r="D1250" t="inlineStr"/>
+      <c r="E1250" t="inlineStr"/>
+      <c r="F1250" t="inlineStr"/>
+      <c r="G1250" t="inlineStr"/>
+      <c r="H1250" t="inlineStr"/>
+      <c r="I1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr"/>
+      <c r="C1251" t="inlineStr"/>
+      <c r="D1251" t="inlineStr"/>
+      <c r="E1251" t="inlineStr"/>
+      <c r="F1251" t="inlineStr"/>
+      <c r="G1251" t="inlineStr"/>
+      <c r="H1251" t="inlineStr"/>
+      <c r="I1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr"/>
+      <c r="C1252" t="inlineStr"/>
+      <c r="D1252" t="inlineStr"/>
+      <c r="E1252" t="inlineStr"/>
+      <c r="F1252" t="inlineStr"/>
+      <c r="G1252" t="inlineStr"/>
+      <c r="H1252" t="inlineStr"/>
+      <c r="I1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr"/>
+      <c r="C1253" t="inlineStr"/>
+      <c r="D1253" t="inlineStr"/>
+      <c r="E1253" t="inlineStr"/>
+      <c r="F1253" t="inlineStr"/>
+      <c r="G1253" t="inlineStr"/>
+      <c r="H1253" t="inlineStr"/>
+      <c r="I1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 104964P70</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr"/>
+      <c r="C1254" t="inlineStr"/>
+      <c r="D1254" t="inlineStr"/>
+      <c r="E1254" t="inlineStr"/>
+      <c r="F1254" t="inlineStr"/>
+      <c r="G1254" t="inlineStr"/>
+      <c r="H1254" t="inlineStr"/>
+      <c r="I1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>Summarized description: Our Thursday NYC after work cruise will keep the night filled with music. Dance into night as you enjoy your favorite hits of this year. Enjoy views, drinks, and music as you make Thursday night the new Friday in 2020 with us.</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr"/>
+      <c r="C1255" t="inlineStr"/>
+      <c r="D1255" t="inlineStr"/>
+      <c r="E1255" t="inlineStr"/>
+      <c r="F1255" t="inlineStr"/>
+      <c r="G1255" t="inlineStr"/>
+      <c r="H1255" t="inlineStr"/>
+      <c r="I1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>Title: Thursday Night Sunset After Work Cruise</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr"/>
+      <c r="C1256" t="inlineStr"/>
+      <c r="D1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr"/>
+      <c r="F1256" t="inlineStr"/>
+      <c r="G1256" t="inlineStr"/>
+      <c r="H1256" t="inlineStr"/>
+      <c r="I1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr"/>
+      <c r="C1257" t="inlineStr"/>
+      <c r="D1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr"/>
+      <c r="F1257" t="inlineStr"/>
+      <c r="G1257" t="inlineStr"/>
+      <c r="H1257" t="inlineStr"/>
+      <c r="I1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr"/>
+      <c r="C1258" t="inlineStr"/>
+      <c r="D1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr"/>
+      <c r="F1258" t="inlineStr"/>
+      <c r="G1258" t="inlineStr"/>
+      <c r="H1258" t="inlineStr"/>
+      <c r="I1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 104964P71</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr"/>
+      <c r="C1259" t="inlineStr"/>
+      <c r="D1259" t="inlineStr"/>
+      <c r="E1259" t="inlineStr"/>
+      <c r="F1259" t="inlineStr"/>
+      <c r="G1259" t="inlineStr"/>
+      <c r="H1259" t="inlineStr"/>
+      <c r="I1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>Summarized description: This Friday NYC happy hour cruise will have you sailing aboard a spacious ship as you take in the sights. Sail in comfort and enjoy views of the city skyline and all of its landmarks. Live DJ mixing up nothing but the hits of the year.</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr"/>
+      <c r="C1260" t="inlineStr"/>
+      <c r="D1260" t="inlineStr"/>
+      <c r="E1260" t="inlineStr"/>
+      <c r="F1260" t="inlineStr"/>
+      <c r="G1260" t="inlineStr"/>
+      <c r="H1260" t="inlineStr"/>
+      <c r="I1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>Title: Friday Night Happy Hour Cruise</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr"/>
+      <c r="C1261" t="inlineStr"/>
+      <c r="D1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr"/>
+      <c r="F1261" t="inlineStr"/>
+      <c r="G1261" t="inlineStr"/>
+      <c r="H1261" t="inlineStr"/>
+      <c r="I1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr"/>
+      <c r="C1262" t="inlineStr"/>
+      <c r="D1262" t="inlineStr"/>
+      <c r="E1262" t="inlineStr"/>
+      <c r="F1262" t="inlineStr"/>
+      <c r="G1262" t="inlineStr"/>
+      <c r="H1262" t="inlineStr"/>
+      <c r="I1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr"/>
+      <c r="C1263" t="inlineStr"/>
+      <c r="D1263" t="inlineStr"/>
+      <c r="E1263" t="inlineStr"/>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr"/>
+      <c r="H1263" t="inlineStr"/>
+      <c r="I1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 2540P112</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr"/>
+      <c r="C1264" t="inlineStr"/>
+      <c r="D1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr"/>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="inlineStr"/>
+      <c r="H1264" t="inlineStr"/>
+      <c r="I1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>Summarized description: The 2-hour happy hour cruise of New York Harbor is the perfect way to unwind. Kick back with music, drinks and dancing aboard a sightseeing yacht that takes you past Manhattan's iconic skyline.</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr"/>
+      <c r="C1265" t="inlineStr"/>
+      <c r="D1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr"/>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="inlineStr"/>
+      <c r="H1265" t="inlineStr"/>
+      <c r="I1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>Title: Alive After Five Happy Hour Cruise-Group Option</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr"/>
+      <c r="C1266" t="inlineStr"/>
+      <c r="D1266" t="inlineStr"/>
+      <c r="E1266" t="inlineStr"/>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="inlineStr"/>
+      <c r="H1266" t="inlineStr"/>
+      <c r="I1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr"/>
+      <c r="C1267" t="inlineStr"/>
+      <c r="D1267" t="inlineStr"/>
+      <c r="E1267" t="inlineStr"/>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="inlineStr"/>
+      <c r="H1267" t="inlineStr"/>
+      <c r="I1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr"/>
+      <c r="C1268" t="inlineStr"/>
+      <c r="D1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr"/>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="inlineStr"/>
+      <c r="H1268" t="inlineStr"/>
+      <c r="I1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90219P227</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr"/>
+      <c r="C1269" t="inlineStr"/>
+      <c r="D1269" t="inlineStr"/>
+      <c r="E1269" t="inlineStr"/>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="inlineStr"/>
+      <c r="H1269" t="inlineStr"/>
+      <c r="I1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>Summarized description: Get stunning views of Lower Manhattan after dark. Sail within 100 feet of the Statue of Liberty. Cruise under the Brooklyn Bridge, Manhattan Bridge and Williamsburg Bridge.</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr"/>
+      <c r="C1270" t="inlineStr"/>
+      <c r="D1270" t="inlineStr"/>
+      <c r="E1270" t="inlineStr"/>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="inlineStr"/>
+      <c r="H1270" t="inlineStr"/>
+      <c r="I1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>Title: New York: Exciting 2-Hour Harbor Lights Night Cruise</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr"/>
+      <c r="C1271" t="inlineStr"/>
+      <c r="D1271" t="inlineStr"/>
+      <c r="E1271" t="inlineStr"/>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="inlineStr"/>
+      <c r="H1271" t="inlineStr"/>
+      <c r="I1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr"/>
+      <c r="C1272" t="inlineStr"/>
+      <c r="D1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr"/>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="inlineStr"/>
+      <c r="H1272" t="inlineStr"/>
+      <c r="I1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises', 'Historical Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr"/>
+      <c r="C1273" t="inlineStr"/>
+      <c r="D1273" t="inlineStr"/>
+      <c r="E1273" t="inlineStr"/>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="inlineStr"/>
+      <c r="H1273" t="inlineStr"/>
+      <c r="I1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 104964P72</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr"/>
+      <c r="C1274" t="inlineStr"/>
+      <c r="D1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr"/>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="inlineStr"/>
+      <c r="H1274" t="inlineStr"/>
+      <c r="I1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>Summarized description: 3-hour party cruise around Manhattan. Beer &amp; Wine open bar (available with upgrade) onboard DJ entertainment. Photo-ops of Statue of Liberty, Ellis Island, Brooklyn Bridge &amp; more.</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr"/>
+      <c r="C1275" t="inlineStr"/>
+      <c r="D1275" t="inlineStr"/>
+      <c r="E1275" t="inlineStr"/>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="inlineStr"/>
+      <c r="H1275" t="inlineStr"/>
+      <c r="I1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>Title: Rock the Yacht Fridays! New York City Party Cruise</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr"/>
+      <c r="C1276" t="inlineStr"/>
+      <c r="D1276" t="inlineStr"/>
+      <c r="E1276" t="inlineStr"/>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="inlineStr"/>
+      <c r="H1276" t="inlineStr"/>
+      <c r="I1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr"/>
+      <c r="C1277" t="inlineStr"/>
+      <c r="D1277" t="inlineStr"/>
+      <c r="E1277" t="inlineStr"/>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="inlineStr"/>
+      <c r="H1277" t="inlineStr"/>
+      <c r="I1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr"/>
+      <c r="C1278" t="inlineStr"/>
+      <c r="D1278" t="inlineStr"/>
+      <c r="E1278" t="inlineStr"/>
+      <c r="F1278" t="inlineStr"/>
+      <c r="G1278" t="inlineStr"/>
+      <c r="H1278" t="inlineStr"/>
+      <c r="I1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 72092P2</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr"/>
+      <c r="C1279" t="inlineStr"/>
+      <c r="D1279" t="inlineStr"/>
+      <c r="E1279" t="inlineStr"/>
+      <c r="F1279" t="inlineStr"/>
+      <c r="G1279" t="inlineStr"/>
+      <c r="H1279" t="inlineStr"/>
+      <c r="I1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>Summarized description: Set sail from the World's Fair Marina in Flushing Meadows Queens. A delicious gourmet buffet is available in the dining decks. Live DJ Entertainment awaits you on our all-weather Rooftop Dance floor.</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr"/>
+      <c r="C1280" t="inlineStr"/>
+      <c r="D1280" t="inlineStr"/>
+      <c r="E1280" t="inlineStr"/>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="inlineStr"/>
+      <c r="H1280" t="inlineStr"/>
+      <c r="I1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>Title: Public NYC Skyline and Statue of Liberty Dinner Cruise from Flushing Queens</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr"/>
+      <c r="C1281" t="inlineStr"/>
+      <c r="D1281" t="inlineStr"/>
+      <c r="E1281" t="inlineStr"/>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="inlineStr"/>
+      <c r="H1281" t="inlineStr"/>
+      <c r="I1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr"/>
+      <c r="C1282" t="inlineStr"/>
+      <c r="D1282" t="inlineStr"/>
+      <c r="E1282" t="inlineStr"/>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="inlineStr"/>
+      <c r="H1282" t="inlineStr"/>
+      <c r="I1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr"/>
+      <c r="C1283" t="inlineStr"/>
+      <c r="D1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr"/>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="inlineStr"/>
+      <c r="H1283" t="inlineStr"/>
+      <c r="I1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 111861P16</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr"/>
+      <c r="C1284" t="inlineStr"/>
+      <c r="D1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr"/>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="inlineStr"/>
+      <c r="H1284" t="inlineStr"/>
+      <c r="I1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr"/>
+      <c r="C1285" t="inlineStr"/>
+      <c r="D1285" t="inlineStr"/>
+      <c r="E1285" t="inlineStr"/>
+      <c r="F1285" t="inlineStr"/>
+      <c r="G1285" t="inlineStr"/>
+      <c r="H1285" t="inlineStr"/>
+      <c r="I1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr"/>
+      <c r="C1286" t="inlineStr"/>
+      <c r="D1286" t="inlineStr"/>
+      <c r="E1286" t="inlineStr"/>
+      <c r="F1286" t="inlineStr"/>
+      <c r="G1286" t="inlineStr"/>
+      <c r="H1286" t="inlineStr"/>
+      <c r="I1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr"/>
+      <c r="C1287" t="inlineStr"/>
+      <c r="D1287" t="inlineStr"/>
+      <c r="E1287" t="inlineStr"/>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="inlineStr"/>
+      <c r="H1287" t="inlineStr"/>
+      <c r="I1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises']</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr"/>
+      <c r="C1288" t="inlineStr"/>
+      <c r="D1288" t="inlineStr"/>
+      <c r="E1288" t="inlineStr"/>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="inlineStr"/>
+      <c r="H1288" t="inlineStr"/>
+      <c r="I1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr"/>
+      <c r="C1289" t="inlineStr"/>
+      <c r="D1289" t="inlineStr"/>
+      <c r="E1289" t="inlineStr"/>
+      <c r="F1289" t="inlineStr"/>
+      <c r="G1289" t="inlineStr"/>
+      <c r="H1289" t="inlineStr"/>
+      <c r="I1289" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
